--- a/data/hotels_by_city/Houston/Houston_shard_553.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_553.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="360">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d585164-Reviews-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Residence-Inn-Houston-West-Energy-Corridor.h1348617.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,954 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r568558522-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>585164</t>
+  </si>
+  <si>
+    <t>568558522</t>
+  </si>
+  <si>
+    <t>03/24/2018</t>
+  </si>
+  <si>
+    <t>Great value for the quality</t>
+  </si>
+  <si>
+    <t>What can I say? Once again Marriott stands up to its name and quality. This is your typical, clean, well appointed and always friendly Residence Inn hotel, but with a little twist, being in an Energy Corridor area, with a few good restaurants around the place and few good ones in proximity (Westheimer St). Last, but not least, the evening manager's reception are good also, with often decent variety of foods and drinks, including some local Houston brews!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Leola J, General Manager at Residence Inn Houston West/Energy Corridor, responded to this reviewResponded March 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2018</t>
+  </si>
+  <si>
+    <t>What can I say? Once again Marriott stands up to its name and quality. This is your typical, clean, well appointed and always friendly Residence Inn hotel, but with a little twist, being in an Energy Corridor area, with a few good restaurants around the place and few good ones in proximity (Westheimer St). Last, but not least, the evening manager's reception are good also, with often decent variety of foods and drinks, including some local Houston brews!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r554293575-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>554293575</t>
+  </si>
+  <si>
+    <t>01/16/2018</t>
+  </si>
+  <si>
+    <t>Outstanding Hotel with AMAZING STAFF!</t>
+  </si>
+  <si>
+    <t>As most of us know, Residence Inn by Marriott is usually a fairly nice hotel with adequate room and polite staff.  Well I have to say after staying at several Hotels of all brands including many Residence Inn's, this location in the Energy Corridor Houston tops the list! Rooms are equal to most other locations but the staff here puts this Hotel at a whole new level and should be emulated! It all starts with constant smiles and a genuine welcoming feel that heir employees exude to each and every guest that enters the Hotel. This behavior coupled with unparalleled kindness and constant attention to guest comfort makes it a true pleasure to stay at this property. I could go on but would like to end with naming a few of the individuals I am speaking of. Michelle, Brandon and Leola should be commended for setting the example all chains and properties should strive to match!  Thank you to all of you and Management for treating guests with such customer service and professionalism.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>As most of us know, Residence Inn by Marriott is usually a fairly nice hotel with adequate room and polite staff.  Well I have to say after staying at several Hotels of all brands including many Residence Inn's, this location in the Energy Corridor Houston tops the list! Rooms are equal to most other locations but the staff here puts this Hotel at a whole new level and should be emulated! It all starts with constant smiles and a genuine welcoming feel that heir employees exude to each and every guest that enters the Hotel. This behavior coupled with unparalleled kindness and constant attention to guest comfort makes it a true pleasure to stay at this property. I could go on but would like to end with naming a few of the individuals I am speaking of. Michelle, Brandon and Leola should be commended for setting the example all chains and properties should strive to match!  Thank you to all of you and Management for treating guests with such customer service and professionalism.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r549217232-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>549217232</t>
+  </si>
+  <si>
+    <t>12/25/2017</t>
+  </si>
+  <si>
+    <t>Best Place to stay</t>
+  </si>
+  <si>
+    <t>Hi, I had been to Houston on a business trip. I was suggested Staybridge to book my stay. But friend of mine suggested take Residence Inn will better.  So I blocked to stay in Residence Inn.  After my stay there for a week. I really felt to be at home.  The room was quite spacious.  The Front desk people will greet you with warm smile. The hotel room was maintained very clean and tidy.  Especially Michelle Ung always extends to maximum capacity to help the inmates with her warm smile,  i recommend to my friends to take stay in Residence INN at North Eldridge Parkway. Houston.thanks for the hospitality during my stay. A request an indian breakfast  will add a flavour to this more.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Hi, I had been to Houston on a business trip. I was suggested Staybridge to book my stay. But friend of mine suggested take Residence Inn will better.  So I blocked to stay in Residence Inn.  After my stay there for a week. I really felt to be at home.  The room was quite spacious.  The Front desk people will greet you with warm smile. The hotel room was maintained very clean and tidy.  Especially Michelle Ung always extends to maximum capacity to help the inmates with her warm smile,  i recommend to my friends to take stay in Residence INN at North Eldridge Parkway. Houston.thanks for the hospitality during my stay. A request an indian breakfast  will add a flavour to this more.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r540052371-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>540052371</t>
+  </si>
+  <si>
+    <t>11/10/2017</t>
+  </si>
+  <si>
+    <t>The place to be in Harvey like situation</t>
+  </si>
+  <si>
+    <t>I arrived in Houston, with my family from INDIA, a week before Harvey hit us. Booked this hotel because of the fabulous reviews and of course near to my office. Then the rain poured and the Bayous of Houston overflowed. Clear Blue skies, water everywhere but nowhere to go.And that's when the team at the hotel stepped up.. marooned with water all around us, the hotel staff didn't abandon the guest. Infact, under due constant threat of flooding, they went about their jobs in all courtesy and kindness, never complaining.This worn my heart &amp; I have no words t thank them for this selfless deed.So, I will vouch for them, always, and always book them for my guest, now on.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>I arrived in Houston, with my family from INDIA, a week before Harvey hit us. Booked this hotel because of the fabulous reviews and of course near to my office. Then the rain poured and the Bayous of Houston overflowed. Clear Blue skies, water everywhere but nowhere to go.And that's when the team at the hotel stepped up.. marooned with water all around us, the hotel staff didn't abandon the guest. Infact, under due constant threat of flooding, they went about their jobs in all courtesy and kindness, never complaining.This worn my heart &amp; I have no words t thank them for this selfless deed.So, I will vouch for them, always, and always book them for my guest, now on.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r534474026-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>534474026</t>
+  </si>
+  <si>
+    <t>10/19/2017</t>
+  </si>
+  <si>
+    <t>I appreciate her.</t>
+  </si>
+  <si>
+    <t>Last year, I had been at this hotel for more than 6 months. This time, I visited again. Since I arrived here on 5 Oct. 2017, I have been feeling good every day. Why?  All people kind and gentle. Especially, I would like to appreciate Mrs. Michelle Ung. She always gave me warm greeting, so much kind , working hard positively and  tried to listen to me. Whenever I meet her, I become happy.  Mrs. Michelle,  Thank you.  Bye.....</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r533879097-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>533879097</t>
+  </si>
+  <si>
+    <t>10/17/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very helpful, Very friendly Front Desk support </t>
+  </si>
+  <si>
+    <t>My team and I stayed in this hotel for the business purpose multiple times and it has been always memorable and I prefer to stay in future as well. This is mainly because of front desk support which is very important for any business traveller. Michelle Ung has been my front desk staff who dealt with my bookings - she was so friendly, helpful and fast through out the stay in all my trips ....Apart from that, great amenity... clean ..calm ..close to my office etc. And it  is close to many Engineering offices at energy corridor...I highly recommend this hotel ...and thanks for making every trip memorable ...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r491202399-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>491202399</t>
+  </si>
+  <si>
+    <t>06/07/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best ever VEGETARIAN breakfast. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All I need morning vegetarian breakfast after 21 hours of airplane journey and jet lag that makes u hungry in the morning every morning. The rooms are good and hotel is pretty clean. Friendly front desk. Location is just the right place for many offices. </t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r485553737-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>485553737</t>
+  </si>
+  <si>
+    <t>05/19/2017</t>
+  </si>
+  <si>
+    <t>Excellent Hotel esp for Business</t>
+  </si>
+  <si>
+    <t>This hotel is adjacent to the highway and nestled in amongst new modern office buildings.  The facility itself is modern, clean and very comfortable.  I stayed here on the advice of my client and colleagues as they all like the facility, the convenience to the businesses in the area and the fact that it has free garage parking, a great open bar Happy hour (actually several hours) and breakfast.My suite was the typical Residence Inn set up. Clean, quiet and comfortable.I was only staying one night so most of the amenities like the Kitchener weren't necessary.I met a colleague for complimentary drinks and then we migrated to the hotel restaurant for dinner.  We were too lazy to take a car - you do need to drive to nearby restaurants although the hotel also offered to take us via the hotel shuttle and then come pick us up.  But, we are in and we're pleased with the food.My colleagues had each stayed here multiple times and If and,when I find myself in this part of Houston I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>This hotel is adjacent to the highway and nestled in amongst new modern office buildings.  The facility itself is modern, clean and very comfortable.  I stayed here on the advice of my client and colleagues as they all like the facility, the convenience to the businesses in the area and the fact that it has free garage parking, a great open bar Happy hour (actually several hours) and breakfast.My suite was the typical Residence Inn set up. Clean, quiet and comfortable.I was only staying one night so most of the amenities like the Kitchener weren't necessary.I met a colleague for complimentary drinks and then we migrated to the hotel restaurant for dinner.  We were too lazy to take a car - you do need to drive to nearby restaurants although the hotel also offered to take us via the hotel shuttle and then come pick us up.  But, we are in and we're pleased with the food.My colleagues had each stayed here multiple times and If and,when I find myself in this part of Houston I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r481626936-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>481626936</t>
+  </si>
+  <si>
+    <t>05/04/2017</t>
+  </si>
+  <si>
+    <t>Would stay here again</t>
+  </si>
+  <si>
+    <t>This is the second time we have stayed here for OTC. Great staff, clean rooms, nice happy hour. The breakfast needs a lot of help. I know it is free but please do a better job. It is close to a lot or restaurant.Thanks</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r470055914-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>470055914</t>
+  </si>
+  <si>
+    <t>03/25/2017</t>
+  </si>
+  <si>
+    <t>Best Practical Hotel for business and pleasure</t>
+  </si>
+  <si>
+    <t>Right from location, free shuttles,friendly staff and breakfast everything is just fine. We ordered a package to the hotel address and got intimated by the hotel when it arrived. They do lot of fun stuff most evenings with free barbecue and wine.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r462589007-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>462589007</t>
+  </si>
+  <si>
+    <t>02/24/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good for business travelers </t>
+  </si>
+  <si>
+    <t>The room is big with kitchen since I don't use it at all. The staff are very friendly and offer shuttle to locations nearby. A very important tips is take uber than cab from airport to this hotel because the price difference is HUGE!</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r430191047-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>430191047</t>
+  </si>
+  <si>
+    <t>10/20/2016</t>
+  </si>
+  <si>
+    <t>Great staff and shower pressure but everything else needs a facelift</t>
+  </si>
+  <si>
+    <t>Stayed here 3 nights: Pros - super friendly and accommodating staff (5 stars), shower had great water flow; room was clean, gym was good. Cons- furniture and design are a bit outdated; breakfast was not appetizing at all - meat looked like it came frozen from a huge costco bag and was microwaved, fruit was too finely cut, breads were from supermarkets generic type, utensils were on a counter and not on special plates for food safety, I ended up eating chobani yogurts only as nothing looked good. Please charge $20 per night more and get better breakfast. Or don't offer it at all or downsize to some Einstein bagels and Chobani yogurts; business computer was not letting print a boarding pass so the front desk lady did it from her computer. Please upgrade that machine. It is antiquated. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Leola J, General Manager at Residence Inn Houston West/Energy Corridor, responded to this reviewResponded October 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here 3 nights: Pros - super friendly and accommodating staff (5 stars), shower had great water flow; room was clean, gym was good. Cons- furniture and design are a bit outdated; breakfast was not appetizing at all - meat looked like it came frozen from a huge costco bag and was microwaved, fruit was too finely cut, breads were from supermarkets generic type, utensils were on a counter and not on special plates for food safety, I ended up eating chobani yogurts only as nothing looked good. Please charge $20 per night more and get better breakfast. Or don't offer it at all or downsize to some Einstein bagels and Chobani yogurts; business computer was not letting print a boarding pass so the front desk lady did it from her computer. Please upgrade that machine. It is antiquated. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r410332127-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>410332127</t>
+  </si>
+  <si>
+    <t>08/24/2016</t>
+  </si>
+  <si>
+    <t>Always a Good Stay.</t>
+  </si>
+  <si>
+    <t>I have been coming here often on business and it's starting to feel like a home away from home. Rooms are setup nice with plenty of room. The staff is great and the front desk remembers me by name on my visits. Good breakfast and even some free drinks in the evening.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r408996239-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>408996239</t>
+  </si>
+  <si>
+    <t>08/22/2016</t>
+  </si>
+  <si>
+    <t>Ups and Downs short biz trip</t>
+  </si>
+  <si>
+    <t>Nice to have a lil bigger room in energy area with kitchen. Breakfast: ok, not everyone likes pepper on eggs, should be plain and allow us to season. If you come close to 840a many things are out. Milk seems unsanitary sitting with no ice. Room: mine was clean, hallways &amp; elevator seemed dirty all the time (except at 1am)The a/c vent in BR is not adjustable air blew right on my head and I froze, no lever to adjust, I slept all week with spare sheet around my head its for that reason I won't come back even though I like hotel. Room requests: did not honor floor or room location request. Sleep-in time: housekeeping knocks on departure day even with no disturb sign out. Staff: for me they were friendly &amp; helped out when computer was in use by logging in &amp; printing for me on own computers. MoreShow less</t>
+  </si>
+  <si>
+    <t>Leola J, General Manager at Residence Inn Houston West/Energy Corridor, responded to this reviewResponded August 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2016</t>
+  </si>
+  <si>
+    <t>Nice to have a lil bigger room in energy area with kitchen. Breakfast: ok, not everyone likes pepper on eggs, should be plain and allow us to season. If you come close to 840a many things are out. Milk seems unsanitary sitting with no ice. Room: mine was clean, hallways &amp; elevator seemed dirty all the time (except at 1am)The a/c vent in BR is not adjustable air blew right on my head and I froze, no lever to adjust, I slept all week with spare sheet around my head its for that reason I won't come back even though I like hotel. Room requests: did not honor floor or room location request. Sleep-in time: housekeeping knocks on departure day even with no disturb sign out. Staff: for me they were friendly &amp; helped out when computer was in use by logging in &amp; printing for me on own computers. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r400972219-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>400972219</t>
+  </si>
+  <si>
+    <t>08/03/2016</t>
+  </si>
+  <si>
+    <t>Residence Inn still friendly but not for business travelers.</t>
+  </si>
+  <si>
+    <t>Stayed at this location many times &amp; although the front desk staff is very friendly, it is NOT set up for business travelers. No business center, impossible to make copies or print anything and on my latest stay, they couldn't provide room keys to guests so any time I needed into my room I had to go to the front desk and get escorted to my room so they could open my door. finally at 9pm they got me a room key.  Breakfast is also weak with limited offering and space. Time for an upgrade.MoreShow less</t>
+  </si>
+  <si>
+    <t>Leola J, Manager at Residence Inn Houston West/Energy Corridor, responded to this reviewResponded August 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2016</t>
+  </si>
+  <si>
+    <t>Stayed at this location many times &amp; although the front desk staff is very friendly, it is NOT set up for business travelers. No business center, impossible to make copies or print anything and on my latest stay, they couldn't provide room keys to guests so any time I needed into my room I had to go to the front desk and get escorted to my room so they could open my door. finally at 9pm they got me a room key.  Breakfast is also weak with limited offering and space. Time for an upgrade.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r385246653-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>385246653</t>
+  </si>
+  <si>
+    <t>06/23/2016</t>
+  </si>
+  <si>
+    <t>A+ to the staff and management of this Residence Inn!</t>
+  </si>
+  <si>
+    <t>We traveled to Houston for family business.  The staff at this hotel were amazingly accommodating.  All were friendly and helpful, greeting all of us by name.  All went the extra mile to make our stay as comfortable as possible.  Rooms were comfortable and clean.  The breakfast buffet had enough options to appeal to all.  The early evening wine and snacks were filling enough for a light dinner meal.  We would definitely stay at this particular hotel again if in the area.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r383254233-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>383254233</t>
+  </si>
+  <si>
+    <t>06/16/2016</t>
+  </si>
+  <si>
+    <t>Consistent quality Residence Inn</t>
+  </si>
+  <si>
+    <t>Stayed at this Residence in for business and it is a good example of the Residence Inn brand. Staff were all friendly and efficient and flexible with our needs. Room was very clean and tidy with all the items you would expect. Only minor criticism would be the wardrobe doors being very rickety and difficult to use. Bathroom area is very small but all perfectly useable. Across the road there are a few restaurants but some do close early so be aware. Location is nice and quiet nestled between a residential area and the local offices.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r376128886-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>376128886</t>
+  </si>
+  <si>
+    <t>05/24/2016</t>
+  </si>
+  <si>
+    <t>WONDERFUL STAFF / GREAT FOR DOGS!</t>
+  </si>
+  <si>
+    <t>My husband and I and our 2 Pugs stayed here for 2 weeks awaiting the completion of our new home.  While no place is perfect, this hotel really worked for us.  The staff, Leola Judge- GM, Michelle, Dakota, Sean, sweet ZUNI and Nilda were so helpful and worked hard to make our stay enjoyable.  A special thanks to Zuni for getting me to-go breakfast containers and Nilda for my happy hour evenings!  Location is perfect for restaurants--many in walking distance.The rooms were a little small but having the separate bedroom was a plus.  Would definitely stay here again!</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r355665858-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>355665858</t>
+  </si>
+  <si>
+    <t>03/15/2016</t>
+  </si>
+  <si>
+    <t>Volleyball visit</t>
+  </si>
+  <si>
+    <t>Hotel isn't bad at all and the breakfast was good. Would definitely stay at this hotel again.  It's pet friendly and seemed to be very clean.  The kids (volleyball team) seemed to have really enjoyed it.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Leola J, General Manager at Residence Inn Houston West/Energy Corridor, responded to this reviewResponded March 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2016</t>
+  </si>
+  <si>
+    <t>Hotel isn't bad at all and the breakfast was good. Would definitely stay at this hotel again.  It's pet friendly and seemed to be very clean.  The kids (volleyball team) seemed to have really enjoyed it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r348150795-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>348150795</t>
+  </si>
+  <si>
+    <t>02/16/2016</t>
+  </si>
+  <si>
+    <t>Solid choice in this area</t>
+  </si>
+  <si>
+    <t>Stayed here a couple of times over the past six months. One of the best Residence Inns I have encountered. Friendly staff always willing to go the extra mile. Nice grounds and facilities. Always a good breakfast. Great choice for the price in the area.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r341805264-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>341805264</t>
+  </si>
+  <si>
+    <t>01/21/2016</t>
+  </si>
+  <si>
+    <t>Efficient service from a friendly front desk</t>
+  </si>
+  <si>
+    <t>First time staying at this hotel because it just popped up as preferred on our travel and I hope it stays. Friendly front desk who know your name whenever you pass the lobby with a friendly greeting. Good breakfast and happy hour at 6pm. Room was clean, big, had a full kitchen. This hotel did everything you would expect from a Marriott. I hope it stays that way and keeps the friendly front desk; makes a world of difference when traveling for work away from home.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r314655713-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>314655713</t>
+  </si>
+  <si>
+    <t>09/29/2015</t>
+  </si>
+  <si>
+    <t>Delivered</t>
+  </si>
+  <si>
+    <t>I had a room, with a good kitchenette area, and a gym I used, and a minimalist breakfast.   Bed was soft, room was spacious enough, hi definition flat screen tv was good.  I did not use the pool or the hotel bus.  Parking was always available, although mid week there were plenty of vehicles.   There were many good restaurants within walking distance, and many more a short drive away. I stocked enough food in my room for snacks &amp; a cereal plus toast breakfast, which was ideal.  Supermarket was a short drive away, my office was a short drive, and a nice walk was about 1/4 mile away &amp; followed buffalo bayou for several miles in both directions (I hiked for 2 hrs 20 mins on my last day).  In summary, this was very much a do it yourself accommodation where I headed out during the day &amp; came home for a comfortable night with the basic comforts and connectivity of home.   It is not a luxury accommodation, but is a good temporary home away from home.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>I had a room, with a good kitchenette area, and a gym I used, and a minimalist breakfast.   Bed was soft, room was spacious enough, hi definition flat screen tv was good.  I did not use the pool or the hotel bus.  Parking was always available, although mid week there were plenty of vehicles.   There were many good restaurants within walking distance, and many more a short drive away. I stocked enough food in my room for snacks &amp; a cereal plus toast breakfast, which was ideal.  Supermarket was a short drive away, my office was a short drive, and a nice walk was about 1/4 mile away &amp; followed buffalo bayou for several miles in both directions (I hiked for 2 hrs 20 mins on my last day).  In summary, this was very much a do it yourself accommodation where I headed out during the day &amp; came home for a comfortable night with the basic comforts and connectivity of home.   It is not a luxury accommodation, but is a good temporary home away from home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r308334120-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>308334120</t>
+  </si>
+  <si>
+    <t>09/08/2015</t>
+  </si>
+  <si>
+    <t>Great service!</t>
+  </si>
+  <si>
+    <t>On my second stay at this Residence Inn. What has really stood out to me is the service these folks provide, especially the front desk. They seem to go out of their way to know all their guests by name, and more importantly will go out of their way to help you if you need it. As a case in point, by the second day of my stay they were greeting me by name when I walked in the door. The other thing that stood out is they provide some variety in the breakfast options. I have been to Residence Inns where it is literally the same thing every day. Their evening happy hours are also mixed up, and they have real people pouring drinks for you.As for the rooms, they are what you would expect at a Residence, in fact they look pretty identical. But I guess it is good you are getting what you expect.MoreShow less</t>
+  </si>
+  <si>
+    <t>On my second stay at this Residence Inn. What has really stood out to me is the service these folks provide, especially the front desk. They seem to go out of their way to know all their guests by name, and more importantly will go out of their way to help you if you need it. As a case in point, by the second day of my stay they were greeting me by name when I walked in the door. The other thing that stood out is they provide some variety in the breakfast options. I have been to Residence Inns where it is literally the same thing every day. Their evening happy hours are also mixed up, and they have real people pouring drinks for you.As for the rooms, they are what you would expect at a Residence, in fact they look pretty identical. But I guess it is good you are getting what you expect.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r307813966-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>307813966</t>
+  </si>
+  <si>
+    <t>09/07/2015</t>
+  </si>
+  <si>
+    <t>Convenient location, comfortable stay</t>
+  </si>
+  <si>
+    <t>We have stayed here several times while visiting my in-laws who live in Parkway Place nearby and have never been disappointed. Excellent price, clean and comfortable room, and excellent breakfast with many choices (included in the price, which is very affordable). Lots of area restaurants close by. Really just cannot be beat. We often have found ourselves checking in quite late after arriving from the airport and would be placed in a ground-floor room; this time, we asked if we could be higher and were given a room on the top floor. Nice view and very quiet. Perfect! We liked, too, that there are different breakfast choices each day.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r277575859-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>277575859</t>
+  </si>
+  <si>
+    <t>06/03/2015</t>
+  </si>
+  <si>
+    <t>Very Nice, As Expected</t>
+  </si>
+  <si>
+    <t>This is an updated Residence Inn and met all expectations.  Room was spacious and comfortable.  Staff went out of their way to greet me.  The food truck in the evening was a nice touch, unfortunately I had to run to a dinner appointment and could not take advantage of it.  Exercise room was very clean with several open machines.  The breakfast buffet looked great, again I had to run to a meeting and only had time to grab a cup of coffee to go.Only issue was I had limited time to enjoy the hotel's amenities.  I would stay here again, and would stay longer.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r275554892-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>275554892</t>
+  </si>
+  <si>
+    <t>05/29/2015</t>
+  </si>
+  <si>
+    <t>five friends in town for a wedding</t>
+  </si>
+  <si>
+    <t>Other reviewers have covered it well. This is a newly updated and modern Residence Inn, walking distance to restaurants and stores. I was in town for a wedding and shared a two bedroom suite with four other friends. The room was very nice and clean. I was worried we might feel cramped but we weren't. The pool and pool area were nice. The hot tub never really got hot (just lukewarm, weird.) The breakfast was great except that they kept running out of things and it would take a while before they were replaced. I stayed over Memorial Day weekend; it's possible that they were just a bit understaffed for the crowd. Wifi worked great. Overall a very good stay.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Other reviewers have covered it well. This is a newly updated and modern Residence Inn, walking distance to restaurants and stores. I was in town for a wedding and shared a two bedroom suite with four other friends. The room was very nice and clean. I was worried we might feel cramped but we weren't. The pool and pool area were nice. The hot tub never really got hot (just lukewarm, weird.) The breakfast was great except that they kept running out of things and it would take a while before they were replaced. I stayed over Memorial Day weekend; it's possible that they were just a bit understaffed for the crowd. Wifi worked great. Overall a very good stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r275158752-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>275158752</t>
+  </si>
+  <si>
+    <t>05/27/2015</t>
+  </si>
+  <si>
+    <t>Wish I had more time</t>
+  </si>
+  <si>
+    <t>Wednesday is food truck day where they bring a local gourmet food truck outside and provide free beer and wine to go with it. Today was Mr Sizzles and they truly do have mouthwatering burgers! The hotel is really clean and well taken care of and centrally located to plenty of shops and eateries. Well worth the price.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r242685997-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>242685997</t>
+  </si>
+  <si>
+    <t>12/03/2014</t>
+  </si>
+  <si>
+    <t>Nice hotel but not quite there</t>
+  </si>
+  <si>
+    <t>Nice hotel with good buffet breakfast in the morning, great wifi and close to the office i was visiting.  Restaurants close by and I-10 was about a mile away.  Service at the front desk was friendly althought I had to get shampoo and bath soap (and extra coffee) from the front desk more than once.  Carpets in hallways on my floor had debri that was not picked up and it was obvious from the q-tip on the floor for 2 days that the vacuum had not made it by.Good value, bed was comfortable and room was large but needs some work on the housekeeping side of thingsMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Leola J, General Manager at Residence Inn Houston West/Energy Corridor, responded to this reviewResponded December 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 22, 2014</t>
+  </si>
+  <si>
+    <t>Nice hotel with good buffet breakfast in the morning, great wifi and close to the office i was visiting.  Restaurants close by and I-10 was about a mile away.  Service at the front desk was friendly althought I had to get shampoo and bath soap (and extra coffee) from the front desk more than once.  Carpets in hallways on my floor had debri that was not picked up and it was obvious from the q-tip on the floor for 2 days that the vacuum had not made it by.Good value, bed was comfortable and room was large but needs some work on the housekeeping side of thingsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r226527081-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>226527081</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>Nice Residence Inn</t>
+  </si>
+  <si>
+    <t>It's been a while since I've stayed in a Residence Inn, and it seems as if the ones I have stayed in are older, apartment-style buildings with outdoor entrances, fluorescent overhead lighting, and indoor/outdoor carpeting - in other words, not very warm and inviting. And to be fair, that's probably an outdated view of the brand. This property, however, is the exact opposite - contemporary and stylish furnishings (in my opinion), lots of task lighting, indoor hallways - a very comfortable hotel. We stayed in a one-bedroom suite, with a separate living area, but my father was across the hall in a studio suite and we commented how large those rooms were as well despite not having a completely separate bedroom. The hotel staff was extremely friendly, the free breakfast had more variety than I expected, and the location can't be beat, with lots and lots of restaurants nearby. The weekend rate was surprisingly affordable, and though we only stayed there one night, I would have no problem staying there for an extended period of time. Though we won't be traveling to Houston much any more (the purpose of this trip was to move my mother-in-law to a new home much closer to our house in the Dallas/Ft. Worth area), I wish we had discovered this hotel sooner.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>It's been a while since I've stayed in a Residence Inn, and it seems as if the ones I have stayed in are older, apartment-style buildings with outdoor entrances, fluorescent overhead lighting, and indoor/outdoor carpeting - in other words, not very warm and inviting. And to be fair, that's probably an outdated view of the brand. This property, however, is the exact opposite - contemporary and stylish furnishings (in my opinion), lots of task lighting, indoor hallways - a very comfortable hotel. We stayed in a one-bedroom suite, with a separate living area, but my father was across the hall in a studio suite and we commented how large those rooms were as well despite not having a completely separate bedroom. The hotel staff was extremely friendly, the free breakfast had more variety than I expected, and the location can't be beat, with lots and lots of restaurants nearby. The weekend rate was surprisingly affordable, and though we only stayed there one night, I would have no problem staying there for an extended period of time. Though we won't be traveling to Houston much any more (the purpose of this trip was to move my mother-in-law to a new home much closer to our house in the Dallas/Ft. Worth area), I wish we had discovered this hotel sooner.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r215966496-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>215966496</t>
+  </si>
+  <si>
+    <t>07/17/2014</t>
+  </si>
+  <si>
+    <t>Wow! Superior customer care</t>
+  </si>
+  <si>
+    <t>From the time I checked in everything was great. I was greeted and thanked and made to feel welcome and valued! The staff was on their game at every level. Great job and thank you for caring about your guests.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r201189244-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>201189244</t>
+  </si>
+  <si>
+    <t>04/15/2014</t>
+  </si>
+  <si>
+    <t>Excellent hotel</t>
+  </si>
+  <si>
+    <t>There is no need to repeat what others have said about this facility. Previous reviewers have written numerous accolades about the service, safety, and cleanliness that they found. These are the same things that I found.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r200508453-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>200508453</t>
+  </si>
+  <si>
+    <t>04/09/2014</t>
+  </si>
+  <si>
+    <t>Very good for a business trip</t>
+  </si>
+  <si>
+    <t>I stayed there for a business trip and it was extremely convenient for my work, and very close to the I10 highway. Plenty of restaurants close by, a very 'useful' happy hour where you can get free food (very basic, but better than nothing!). And very useful and friendly staff who did their best to make my stay pleasant.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r197199061-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>197199061</t>
+  </si>
+  <si>
+    <t>03/12/2014</t>
+  </si>
+  <si>
+    <t>Good place to stay while business trips</t>
+  </si>
+  <si>
+    <t>It is very nice hotel with newly refurbished cozy rooms and excellent customer services. The hotel provides complimentary hearty breakfasts (scrambled eggs, sausages, oat meals, waffles, fresh berries and apples) and from Monday through Thursday the restaurant also serves complimentary dinners (vines and beers provided). After dinner, you can relax by the fireplace in the hotel hall and play backgammon or chess. I would like to emphasize that the hotel meets the highest standards of customer services.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r182473666-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>182473666</t>
+  </si>
+  <si>
+    <t>10/26/2013</t>
+  </si>
+  <si>
+    <t>Nice place once I got my room the following day!</t>
+  </si>
+  <si>
+    <t>The first day I had booked was over booked so I had to stay at another hotel which was not good. They made up for it and overall it was a great stay at this hotel. Good breakfast and good happy hour with beer, wine and small snack. It was very close to everything, close to office and good high speed.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r180023290-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>180023290</t>
+  </si>
+  <si>
+    <t>10/07/2013</t>
+  </si>
+  <si>
+    <t>“Great place to stay”</t>
+  </si>
+  <si>
+    <t>We stayed at Residence inn last year; my wife and I are oil &amp; gas professionals. My wife was there for project related work in Houston for 3 months, while I managed to drop in there for 2 week’s vacation in mid-October. This hotel is a great value for the money. The room was very clean, the bed and the sofa bed were comfortable. The Staff was very friendly and helpful! The morning breakfast is fresh and good and the evening snacks are a welcome surprise. The hotel is in a quiet and secluded corridor away from the daily hustle and bustle of a metropolitan. The overall stay was relaxing and pretty good.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>We stayed at Residence inn last year; my wife and I are oil &amp; gas professionals. My wife was there for project related work in Houston for 3 months, while I managed to drop in there for 2 week’s vacation in mid-October. This hotel is a great value for the money. The room was very clean, the bed and the sofa bed were comfortable. The Staff was very friendly and helpful! The morning breakfast is fresh and good and the evening snacks are a welcome surprise. The hotel is in a quiet and secluded corridor away from the daily hustle and bustle of a metropolitan. The overall stay was relaxing and pretty good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r175564866-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>175564866</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>Always Stay Here</t>
+  </si>
+  <si>
+    <t>We visit Houston often to see family and my husband and I along with our 8 year old stay at this hotel every trip. I always say i'm going to try a different hotel but we come back to this one because of the quiet, neutral location and family friendly amenities. The breaksfast and service are always great, and our room is always clean. The only negatives I can report are (1) two mornings straight, i had to wait for coffee.  I waited both times in the event the server just hadn't gotten around to it but i had to report there was no coffee before it was refilled and (2) there is an awful smell in the hotel that is stemming from food being cooked by some of the guests.  We noticed this our last stay but it was more offensive this trip. At one point, someone in the hotel had opened the window at the elevators so we knew we weren't the only ones bothered by it.  Other than that, this hotel is convenient and works well for our needs having the fridge and microwave and two tvs,,,,MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>We visit Houston often to see family and my husband and I along with our 8 year old stay at this hotel every trip. I always say i'm going to try a different hotel but we come back to this one because of the quiet, neutral location and family friendly amenities. The breaksfast and service are always great, and our room is always clean. The only negatives I can report are (1) two mornings straight, i had to wait for coffee.  I waited both times in the event the server just hadn't gotten around to it but i had to report there was no coffee before it was refilled and (2) there is an awful smell in the hotel that is stemming from food being cooked by some of the guests.  We noticed this our last stay but it was more offensive this trip. At one point, someone in the hotel had opened the window at the elevators so we knew we weren't the only ones bothered by it.  Other than that, this hotel is convenient and works well for our needs having the fridge and microwave and two tvs,,,,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r163274599-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>163274599</t>
+  </si>
+  <si>
+    <t>06/07/2013</t>
+  </si>
+  <si>
+    <t>Good hotel, good staff</t>
+  </si>
+  <si>
+    <t>I stayed four nights and it was really good, sad for me that rate in weekdays is double than weekends. Facilities are good and clean, staff is nice and friendly, the pool was clean and fun. Breakfast in the morning is just ok, and some staff is kind of rude when is closing time. Rooms are plenty of space, even if you pick the one bedroom, it is separated from the living area by a door. Kitchen is very good, and they can do your groceries shopping for you. Is located in the Energy corridor, but the location is good to go to Galleria or Katy.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r153090031-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153090031</t>
+  </si>
+  <si>
+    <t>02/25/2013</t>
+  </si>
+  <si>
+    <t>Customer service was bad</t>
+  </si>
+  <si>
+    <t>I got this room for the allstar weekend and when I checked in my room was not ready. I then went to the room and couldnt get in because the keys did not work. The room was nice, but it did look like they did a rush job on making the bed. It was a decent room, and me and my friends enjoyed it. The only bad thing is the ice maker did not work in the kitchenette, and they also billed me an extra $200 for smoking in the room. Besides that it is a nice place to stay, it just seems like the attendent was kind of prejudice and she did not have very good customer services skills. Hopefull they can train her to better serve the customers.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>I got this room for the allstar weekend and when I checked in my room was not ready. I then went to the room and couldnt get in because the keys did not work. The room was nice, but it did look like they did a rush job on making the bed. It was a decent room, and me and my friends enjoyed it. The only bad thing is the ice maker did not work in the kitchenette, and they also billed me an extra $200 for smoking in the room. Besides that it is a nice place to stay, it just seems like the attendent was kind of prejudice and she did not have very good customer services skills. Hopefull they can train her to better serve the customers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r149596317-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>149596317</t>
+  </si>
+  <si>
+    <t>01/13/2013</t>
+  </si>
+  <si>
+    <t>Great property ,clean &amp; comfortable</t>
+  </si>
+  <si>
+    <t>Stayed three nights in this lovely property , the lobby was decorated very nicely and looked appealing, did not like the smell of the deodorizer by the noisy elevator , the corridor was very clean , the room furnished superbly and very clean, the bed was very comfortable as always, the couch and working desk appealing. The room contained a large refrigerator, microwave , dishwasher, coffee maker stove, and all dishes &amp; utensils needed for cooking. The restaurant had plenty room to eat and move around , the buffet attendant was very caring on replenishment of the food .  with Apples and oranges were large size , nice bowl of red grapes added value , assorted cereals stationed properly to avoid congested traffic .This would be my favorite place to stay .MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Stayed three nights in this lovely property , the lobby was decorated very nicely and looked appealing, did not like the smell of the deodorizer by the noisy elevator , the corridor was very clean , the room furnished superbly and very clean, the bed was very comfortable as always, the couch and working desk appealing. The room contained a large refrigerator, microwave , dishwasher, coffee maker stove, and all dishes &amp; utensils needed for cooking. The restaurant had plenty room to eat and move around , the buffet attendant was very caring on replenishment of the food .  with Apples and oranges were large size , nice bowl of red grapes added value , assorted cereals stationed properly to avoid congested traffic .This would be my favorite place to stay .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r145192444-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>145192444</t>
+  </si>
+  <si>
+    <t>11/11/2012</t>
+  </si>
+  <si>
+    <t>Nice Place in a Decent Area</t>
+  </si>
+  <si>
+    <t>We recently stayed in this hotel with another couple. We had a double suite room. It was very nice to share, 2 bedrooms each with their own bathroom and tv. The bedrooms were pretty small but the great room was pretty spacious. There is a nice pool area, the workout facilities were lacking. The staff was very friendly and helpful. The breakfast was way more than we had expected. I would recommend this hotel. It is nothing glamorous but it is comfortable and they have good rates.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r134275334-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>134275334</t>
+  </si>
+  <si>
+    <t>07/13/2012</t>
+  </si>
+  <si>
+    <t>Decent</t>
+  </si>
+  <si>
+    <t>We stayed here for 3 weeks as a young family while relocating. It is more of a long stay type of hotel than a hotel with all the standard amenities (bar, restaurant etc). That said, it was clean, rooms neat and in good condition and in a good location for this part of town. You can walk to restaurants etc. and there is a nice bayou park nearby to go jogging in etc. The hotel feels quiet (which we liked) and the pool was decent. There are not lots of staff but those that are there are helpful and polite. The breakfasts were ok for standard American style. They were also serving free light meals on week nights (one specific meal per evening, nothing fancy) which was an alternative to eating out every night. Car parking is free too. I would stay here again if working in the Energy corridor.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>We stayed here for 3 weeks as a young family while relocating. It is more of a long stay type of hotel than a hotel with all the standard amenities (bar, restaurant etc). That said, it was clean, rooms neat and in good condition and in a good location for this part of town. You can walk to restaurants etc. and there is a nice bayou park nearby to go jogging in etc. The hotel feels quiet (which we liked) and the pool was decent. There are not lots of staff but those that are there are helpful and polite. The breakfasts were ok for standard American style. They were also serving free light meals on week nights (one specific meal per evening, nothing fancy) which was an alternative to eating out every night. Car parking is free too. I would stay here again if working in the Energy corridor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r131312857-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>131312857</t>
+  </si>
+  <si>
+    <t>06/04/2012</t>
+  </si>
+  <si>
+    <t>56 days in this hotel!</t>
+  </si>
+  <si>
+    <t>Staff is so friendly.  Breakfast was convenient, happy hour snacks were great.  Spent 56 days here after my house rented out...on my way overseas- near everything we needed.  Would highly recommend for extended stay.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r119568331-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>119568331</t>
+  </si>
+  <si>
+    <t>10/21/2011</t>
+  </si>
+  <si>
+    <t>Solid hotel in a great location</t>
+  </si>
+  <si>
+    <t>I have been working on a project with an energy company for the last few months and have had to commute to Houston for at least 1 week each month.  I have stayed every time at the Residence Inn Energy Corridor and have not yet been disappointed.  The hotel is your standard business hotel with the benefit of having a full kitchen.  The rooms have always been spotless and the service friendly.  The hotel is within walking distance of several good restaurants including Mexican, Mediterranean, and sushi restaurants next door.  There is also a very nice grocery store approximately 1/2 mile down the street where you can get any provisions you might want for an extended stay.  There is an excellent dry cleaner and a salon/day spa across the street.  The pool area looks nice although I haven't used it.  The fitness center consists of two treadmills, a stairmaster, and a stationary bike.  I think there are also a few free weights. My only complaint is that the hotel seems to set its thermostat a bit on the low side for my taste.  I walked into my room one time to find it set on 65F.  The common areas also tend to be a bit chilly.Bottom line I will continue to stay at this hotel anytime I have to travel to the Energy Corridor.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>I have been working on a project with an energy company for the last few months and have had to commute to Houston for at least 1 week each month.  I have stayed every time at the Residence Inn Energy Corridor and have not yet been disappointed.  The hotel is your standard business hotel with the benefit of having a full kitchen.  The rooms have always been spotless and the service friendly.  The hotel is within walking distance of several good restaurants including Mexican, Mediterranean, and sushi restaurants next door.  There is also a very nice grocery store approximately 1/2 mile down the street where you can get any provisions you might want for an extended stay.  There is an excellent dry cleaner and a salon/day spa across the street.  The pool area looks nice although I haven't used it.  The fitness center consists of two treadmills, a stairmaster, and a stationary bike.  I think there are also a few free weights. My only complaint is that the hotel seems to set its thermostat a bit on the low side for my taste.  I walked into my room one time to find it set on 65F.  The common areas also tend to be a bit chilly.Bottom line I will continue to stay at this hotel anytime I have to travel to the Energy Corridor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r118610184-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>118610184</t>
+  </si>
+  <si>
+    <t>09/26/2011</t>
+  </si>
+  <si>
+    <t>Newer facility</t>
+  </si>
+  <si>
+    <t>We've put our friends and family here recently and spent some time there.  Great facility--good location-very close to highways and great dining.Free breakfast was actually decent--when other Marriotts might have so-so.Rooms could stand an update-but they're very comfortable.</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r102953166-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>102953166</t>
+  </si>
+  <si>
+    <t>04/05/2011</t>
+  </si>
+  <si>
+    <t>Excellent Stay, Highly Recommend</t>
+  </si>
+  <si>
+    <t>I have nothing bad to say about his Residence Inn at all! The room was spotlessly clean, great amenities and a wonderful value for what was included. The pool area was clean and we enjoyed the hot tub. There was a gas grill, lounge chairs, and plenty of clean towels. The breakfast was far better than most free breakfasts, and the staff worked diligently to keep the food stocked.The area of the hotel was safe and secure and very quiet. We would certainly stay here again!</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r32750887-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>32750887</t>
+  </si>
+  <si>
+    <t>06/20/2009</t>
+  </si>
+  <si>
+    <t>Luxurious Inn</t>
+  </si>
+  <si>
+    <t>Awesome , fantastic &amp; great place to be at. Chill out in the pool and enjoy the hospitality and care taken to make your stay comfortable.Spacious Self contained rooms and suites , Internet fast 24/7 and staff courteous.</t>
+  </si>
+  <si>
+    <t>March 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r31743337-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>31743337</t>
+  </si>
+  <si>
+    <t>06/06/2009</t>
+  </si>
+  <si>
+    <t>Enjoyed my stay</t>
+  </si>
+  <si>
+    <t>My Jet Privilage number is: 115134235 Excellent service, well apointed rooms with kitchenette and free wireless internet.Excellent food and friendly service. Extremely clean and tidy.</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r17082561-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>17082561</t>
+  </si>
+  <si>
+    <t>06/20/2008</t>
+  </si>
+  <si>
+    <t>Great place, friendly faces. AWESOME breakfast</t>
+  </si>
+  <si>
+    <t>Stayed here 1 night. The staff is fantastic. The place appears VERY clean. The rooms are good. The cleaning staff can be loud. Basic pool. The staff really did seem to know a LOT of peoples names. I knew that was a good sign.</t>
+  </si>
+  <si>
+    <t>September 2007</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1489,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1521,3095 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>101</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>119</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>125</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>126</v>
+      </c>
+      <c r="X13" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" t="s">
+        <v>133</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>134</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J15" t="s">
+        <v>137</v>
+      </c>
+      <c r="K15" t="s">
+        <v>138</v>
+      </c>
+      <c r="L15" t="s">
+        <v>139</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>140</v>
+      </c>
+      <c r="X15" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" t="s">
+        <v>145</v>
+      </c>
+      <c r="K16" t="s">
+        <v>146</v>
+      </c>
+      <c r="L16" t="s">
+        <v>147</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>134</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>148</v>
+      </c>
+      <c r="X16" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>152</v>
+      </c>
+      <c r="J17" t="s">
+        <v>153</v>
+      </c>
+      <c r="K17" t="s">
+        <v>154</v>
+      </c>
+      <c r="L17" t="s">
+        <v>155</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>156</v>
+      </c>
+      <c r="O17" t="s">
+        <v>77</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>158</v>
+      </c>
+      <c r="J18" t="s">
+        <v>159</v>
+      </c>
+      <c r="K18" t="s">
+        <v>160</v>
+      </c>
+      <c r="L18" t="s">
+        <v>161</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>156</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>163</v>
+      </c>
+      <c r="J19" t="s">
+        <v>164</v>
+      </c>
+      <c r="K19" t="s">
+        <v>165</v>
+      </c>
+      <c r="L19" t="s">
+        <v>166</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>167</v>
+      </c>
+      <c r="O19" t="s">
+        <v>77</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>169</v>
+      </c>
+      <c r="J20" t="s">
+        <v>170</v>
+      </c>
+      <c r="K20" t="s">
+        <v>171</v>
+      </c>
+      <c r="L20" t="s">
+        <v>172</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>173</v>
+      </c>
+      <c r="O20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>174</v>
+      </c>
+      <c r="X20" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>178</v>
+      </c>
+      <c r="J21" t="s">
+        <v>179</v>
+      </c>
+      <c r="K21" t="s">
+        <v>180</v>
+      </c>
+      <c r="L21" t="s">
+        <v>181</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>182</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>183</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>184</v>
+      </c>
+      <c r="J22" t="s">
+        <v>185</v>
+      </c>
+      <c r="K22" t="s">
+        <v>186</v>
+      </c>
+      <c r="L22" t="s">
+        <v>187</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>182</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J23" t="s">
+        <v>190</v>
+      </c>
+      <c r="K23" t="s">
+        <v>191</v>
+      </c>
+      <c r="L23" t="s">
+        <v>192</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>193</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>195</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>196</v>
+      </c>
+      <c r="J24" t="s">
+        <v>197</v>
+      </c>
+      <c r="K24" t="s">
+        <v>198</v>
+      </c>
+      <c r="L24" t="s">
+        <v>199</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>193</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>201</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>202</v>
+      </c>
+      <c r="J25" t="s">
+        <v>203</v>
+      </c>
+      <c r="K25" t="s">
+        <v>204</v>
+      </c>
+      <c r="L25" t="s">
+        <v>205</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>193</v>
+      </c>
+      <c r="O25" t="s">
+        <v>77</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>206</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>207</v>
+      </c>
+      <c r="J26" t="s">
+        <v>208</v>
+      </c>
+      <c r="K26" t="s">
+        <v>209</v>
+      </c>
+      <c r="L26" t="s">
+        <v>210</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>211</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>212</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>213</v>
+      </c>
+      <c r="J27" t="s">
+        <v>214</v>
+      </c>
+      <c r="K27" t="s">
+        <v>215</v>
+      </c>
+      <c r="L27" t="s">
+        <v>216</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>211</v>
+      </c>
+      <c r="O27" t="s">
+        <v>217</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>219</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>220</v>
+      </c>
+      <c r="J28" t="s">
+        <v>221</v>
+      </c>
+      <c r="K28" t="s">
+        <v>222</v>
+      </c>
+      <c r="L28" t="s">
+        <v>223</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>211</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>224</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>225</v>
+      </c>
+      <c r="J29" t="s">
+        <v>226</v>
+      </c>
+      <c r="K29" t="s">
+        <v>227</v>
+      </c>
+      <c r="L29" t="s">
+        <v>228</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>229</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>230</v>
+      </c>
+      <c r="X29" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>233</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>234</v>
+      </c>
+      <c r="J30" t="s">
+        <v>235</v>
+      </c>
+      <c r="K30" t="s">
+        <v>236</v>
+      </c>
+      <c r="L30" t="s">
+        <v>237</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>238</v>
+      </c>
+      <c r="O30" t="s">
+        <v>239</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>241</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>242</v>
+      </c>
+      <c r="J31" t="s">
+        <v>243</v>
+      </c>
+      <c r="K31" t="s">
+        <v>244</v>
+      </c>
+      <c r="L31" t="s">
+        <v>245</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>246</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>247</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>248</v>
+      </c>
+      <c r="J32" t="s">
+        <v>249</v>
+      </c>
+      <c r="K32" t="s">
+        <v>250</v>
+      </c>
+      <c r="L32" t="s">
+        <v>251</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>252</v>
+      </c>
+      <c r="O32" t="s">
+        <v>77</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>253</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>254</v>
+      </c>
+      <c r="J33" t="s">
+        <v>255</v>
+      </c>
+      <c r="K33" t="s">
+        <v>256</v>
+      </c>
+      <c r="L33" t="s">
+        <v>257</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>258</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>259</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>260</v>
+      </c>
+      <c r="J34" t="s">
+        <v>261</v>
+      </c>
+      <c r="K34" t="s">
+        <v>262</v>
+      </c>
+      <c r="L34" t="s">
+        <v>263</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>264</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>265</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>266</v>
+      </c>
+      <c r="J35" t="s">
+        <v>267</v>
+      </c>
+      <c r="K35" t="s">
+        <v>268</v>
+      </c>
+      <c r="L35" t="s">
+        <v>269</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>270</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>271</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>272</v>
+      </c>
+      <c r="J36" t="s">
+        <v>273</v>
+      </c>
+      <c r="K36" t="s">
+        <v>274</v>
+      </c>
+      <c r="L36" t="s">
+        <v>275</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>276</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>278</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>279</v>
+      </c>
+      <c r="J37" t="s">
+        <v>280</v>
+      </c>
+      <c r="K37" t="s">
+        <v>281</v>
+      </c>
+      <c r="L37" t="s">
+        <v>282</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>283</v>
+      </c>
+      <c r="O37" t="s">
+        <v>77</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>285</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>286</v>
+      </c>
+      <c r="J38" t="s">
+        <v>287</v>
+      </c>
+      <c r="K38" t="s">
+        <v>288</v>
+      </c>
+      <c r="L38" t="s">
+        <v>289</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>290</v>
+      </c>
+      <c r="O38" t="s">
+        <v>77</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>291</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>292</v>
+      </c>
+      <c r="J39" t="s">
+        <v>293</v>
+      </c>
+      <c r="K39" t="s">
+        <v>294</v>
+      </c>
+      <c r="L39" t="s">
+        <v>295</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>296</v>
+      </c>
+      <c r="O39" t="s">
+        <v>217</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>298</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>299</v>
+      </c>
+      <c r="J40" t="s">
+        <v>300</v>
+      </c>
+      <c r="K40" t="s">
+        <v>301</v>
+      </c>
+      <c r="L40" t="s">
+        <v>302</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>303</v>
+      </c>
+      <c r="O40" t="s">
+        <v>239</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>305</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>306</v>
+      </c>
+      <c r="J41" t="s">
+        <v>307</v>
+      </c>
+      <c r="K41" t="s">
+        <v>308</v>
+      </c>
+      <c r="L41" t="s">
+        <v>309</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>276</v>
+      </c>
+      <c r="O41" t="s">
+        <v>217</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>310</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>311</v>
+      </c>
+      <c r="J42" t="s">
+        <v>312</v>
+      </c>
+      <c r="K42" t="s">
+        <v>313</v>
+      </c>
+      <c r="L42" t="s">
+        <v>314</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>315</v>
+      </c>
+      <c r="O42" t="s">
+        <v>77</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>317</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>318</v>
+      </c>
+      <c r="J43" t="s">
+        <v>319</v>
+      </c>
+      <c r="K43" t="s">
+        <v>320</v>
+      </c>
+      <c r="L43" t="s">
+        <v>321</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>322</v>
+      </c>
+      <c r="O43" t="s">
+        <v>77</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>323</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>324</v>
+      </c>
+      <c r="J44" t="s">
+        <v>325</v>
+      </c>
+      <c r="K44" t="s">
+        <v>326</v>
+      </c>
+      <c r="L44" t="s">
+        <v>327</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>328</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>330</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>331</v>
+      </c>
+      <c r="J45" t="s">
+        <v>332</v>
+      </c>
+      <c r="K45" t="s">
+        <v>333</v>
+      </c>
+      <c r="L45" t="s">
+        <v>334</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>335</v>
+      </c>
+      <c r="O45" t="s">
+        <v>77</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>336</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>337</v>
+      </c>
+      <c r="J46" t="s">
+        <v>338</v>
+      </c>
+      <c r="K46" t="s">
+        <v>339</v>
+      </c>
+      <c r="L46" t="s">
+        <v>340</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>341</v>
+      </c>
+      <c r="O46" t="s">
+        <v>239</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>342</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>343</v>
+      </c>
+      <c r="J47" t="s">
+        <v>344</v>
+      </c>
+      <c r="K47" t="s">
+        <v>345</v>
+      </c>
+      <c r="L47" t="s">
+        <v>346</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>347</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>348</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>349</v>
+      </c>
+      <c r="J48" t="s">
+        <v>350</v>
+      </c>
+      <c r="K48" t="s">
+        <v>351</v>
+      </c>
+      <c r="L48" t="s">
+        <v>352</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>353</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>354</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>355</v>
+      </c>
+      <c r="J49" t="s">
+        <v>356</v>
+      </c>
+      <c r="K49" t="s">
+        <v>357</v>
+      </c>
+      <c r="L49" t="s">
+        <v>358</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>359</v>
+      </c>
+      <c r="O49" t="s">
+        <v>77</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_553.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_553.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="572">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,63 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r576543695-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>585164</t>
+  </si>
+  <si>
+    <t>576543695</t>
+  </si>
+  <si>
+    <t>04/29/2018</t>
+  </si>
+  <si>
+    <t>Quality hotel with amazing staff...</t>
+  </si>
+  <si>
+    <t>Residence Inn by Marriott is located in a prime location with a few good restaurants around the place. The surrounding area is quiet and peaceful and green areas with lots of trees. Kroger supermarket is nearby (0.6 miles).Their staff members are very friendly and the main reception area is always open to getting any clarifications or any help. In-house room service is also very good. I am on the 5th floor so the rooms are very good and clean and the environment inside the hotel is very quiet.They are providing complimentary breakfast + some occasional dinner menus. Also, they have a shuttle service.This is a very good place to stay on.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Residence Inn by Marriott is located in a prime location with a few good restaurants around the place. The surrounding area is quiet and peaceful and green areas with lots of trees. Kroger supermarket is nearby (0.6 miles).Their staff members are very friendly and the main reception area is always open to getting any clarifications or any help. In-house room service is also very good. I am on the 5th floor so the rooms are very good and clean and the environment inside the hotel is very quiet.They are providing complimentary breakfast + some occasional dinner menus. Also, they have a shuttle service.This is a very good place to stay on.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r572562980-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>572562980</t>
+  </si>
+  <si>
+    <t>04/10/2018</t>
+  </si>
+  <si>
+    <t>Superior staff and great location</t>
+  </si>
+  <si>
+    <t>Great location, close to several major company offices.  Plenty of places close to done at as well.  And finally a really caring staff.  Michelle and Chris greated me at my post 10pm arrival with my key ready to go and a smile.  My new go to for area</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r568558522-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>585164</t>
-  </si>
-  <si>
     <t>568558522</t>
   </si>
   <si>
@@ -177,9 +222,6 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Leola J, General Manager at Residence Inn Houston West/Energy Corridor, responded to this reviewResponded March 26, 2018</t>
   </si>
   <si>
@@ -231,6 +273,39 @@
     <t>Hi, I had been to Houston on a business trip. I was suggested Staybridge to book my stay. But friend of mine suggested take Residence Inn will better.  So I blocked to stay in Residence Inn.  After my stay there for a week. I really felt to be at home.  The room was quite spacious.  The Front desk people will greet you with warm smile. The hotel room was maintained very clean and tidy.  Especially Michelle Ung always extends to maximum capacity to help the inmates with her warm smile,  i recommend to my friends to take stay in Residence INN at North Eldridge Parkway. Houston.thanks for the hospitality during my stay. A request an indian breakfast  will add a flavour to this more.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r548122787-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>548122787</t>
+  </si>
+  <si>
+    <t>12/19/2017</t>
+  </si>
+  <si>
+    <t>Excellent long term stay property</t>
+  </si>
+  <si>
+    <t>Excellent long term stay property. I am currently staying for a 6 month work assignment - I am three months in. The hotel staff, especially Michelle at front desk, is phenomenal. They are very accommodating with all of my requests. When I leave to go back to home on the weekends and check out of the hotel, they hold my luggage in the storage room and even refrigerate my food so that I don't have to rebuy essential goods. They have happy hours Monday through Wednesday where you can enjoy complimentary beverages and hors d'oevres. The rooms are spacious, clean and modern. You get a 300 sq ft studio as the base room - that's pretty large!Highly recommended for long term stays.MoreShow less</t>
+  </si>
+  <si>
+    <t>Excellent long term stay property. I am currently staying for a 6 month work assignment - I am three months in. The hotel staff, especially Michelle at front desk, is phenomenal. They are very accommodating with all of my requests. When I leave to go back to home on the weekends and check out of the hotel, they hold my luggage in the storage room and even refrigerate my food so that I don't have to rebuy essential goods. They have happy hours Monday through Wednesday where you can enjoy complimentary beverages and hors d'oevres. The rooms are spacious, clean and modern. You get a 300 sq ft studio as the base room - that's pretty large!Highly recommended for long term stays.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r547253587-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>547253587</t>
+  </si>
+  <si>
+    <t>12/14/2017</t>
+  </si>
+  <si>
+    <t>My Review</t>
+  </si>
+  <si>
+    <t>I was in Houston for a business trip and again this was my  preferred hotel.The service was excellent and the hotel is neat and clean.Also Appreciate Michelle Ung the Front Desk Executive for all the  help provided and prompt in responding back to my queries and also made my stay comfortable.Also appreciate the service of the  Shuttle pick up representative always prompt on pick up and drop service.The only suggestion i have is to keep Indian food during Mon - Wed Happy Hours as that would also enjoyed by the majority of the Indian people who stay in the hotel.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r540052371-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -249,9 +324,6 @@
     <t>August 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>I arrived in Houston, with my family from INDIA, a week before Harvey hit us. Booked this hotel because of the fabulous reviews and of course near to my office. Then the rain poured and the Bayous of Houston overflowed. Clear Blue skies, water everywhere but nowhere to go.And that's when the team at the hotel stepped up.. marooned with water all around us, the hotel staff didn't abandon the guest. Infact, under due constant threat of flooding, they went about their jobs in all courtesy and kindness, never complaining.This worn my heart &amp; I have no words t thank them for this selfless deed.So, I will vouch for them, always, and always book them for my guest, now on.More</t>
   </si>
   <si>
@@ -288,6 +360,54 @@
     <t>My team and I stayed in this hotel for the business purpose multiple times and it has been always memorable and I prefer to stay in future as well. This is mainly because of front desk support which is very important for any business traveller. Michelle Ung has been my front desk staff who dealt with my bookings - she was so friendly, helpful and fast through out the stay in all my trips ....Apart from that, great amenity... clean ..calm ..close to my office etc. And it  is close to many Engineering offices at energy corridor...I highly recommend this hotel ...and thanks for making every trip memorable ...</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r510791640-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>510791640</t>
+  </si>
+  <si>
+    <t>08/09/2017</t>
+  </si>
+  <si>
+    <t>Great comfortable stay</t>
+  </si>
+  <si>
+    <t>I truly enjoyed my two night stay at this lovely Houston hotel in early June ... so much so that I returned and stayed for another three nights the following week.  Both stays, my room was clean, fresh, and well appointed.  It included a full kitchen, dining area, living area, and bedrooms with their own private baths. It was super quiet and very comfy -- including the beds.  In my two week trip, this hotel was by far the most comfortable place I stayed.  I would not hesitate to return.As an added bonus, the hotel was immediately next door to a delicious upscale Mexican food restaurant - Sylvia's Enchiladas Kitchen -- and right down Eldridge Parkway from about a hundred other great places to eat meals and meet friends.  So convenient!Lastly, the staff went above and beyond to make my stay relaxing.  Plus it was great to have breakfast provided free of charge, a beautiful well-maintained pool, and handy on-site laundry facilities and snack shop.Thanks for making my most recent trip to Houston memorable!  I highly recommend Residence Inn Marriott Houston West Energy Corridor!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I truly enjoyed my two night stay at this lovely Houston hotel in early June ... so much so that I returned and stayed for another three nights the following week.  Both stays, my room was clean, fresh, and well appointed.  It included a full kitchen, dining area, living area, and bedrooms with their own private baths. It was super quiet and very comfy -- including the beds.  In my two week trip, this hotel was by far the most comfortable place I stayed.  I would not hesitate to return.As an added bonus, the hotel was immediately next door to a delicious upscale Mexican food restaurant - Sylvia's Enchiladas Kitchen -- and right down Eldridge Parkway from about a hundred other great places to eat meals and meet friends.  So convenient!Lastly, the staff went above and beyond to make my stay relaxing.  Plus it was great to have breakfast provided free of charge, a beautiful well-maintained pool, and handy on-site laundry facilities and snack shop.Thanks for making my most recent trip to Houston memorable!  I highly recommend Residence Inn Marriott Houston West Energy Corridor!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r493747852-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>493747852</t>
+  </si>
+  <si>
+    <t>06/17/2017</t>
+  </si>
+  <si>
+    <t>Expected More</t>
+  </si>
+  <si>
+    <t>Pretty basic place. We were in town on business and stayed a couple nights. I think we were paying for the full refrigerator, kitchen, living area, etc. and just needed bed and bath. The gym was not in full working order and the jacuzzi had been filled with cement/closed. A/C blew directly on you while sleeping - annoying.Breakfast was decent - not great. Parking was good. Staff was friendly and helpful.Hotel was clean and fairly modern.Traffic was an issue on Eldridge Pkwy.I would choose the Omni right off the highway if I was not on an expended stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Leola J, General Manager at Residence Inn Houston West/Energy Corridor, responded to this reviewResponded June 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2017</t>
+  </si>
+  <si>
+    <t>Pretty basic place. We were in town on business and stayed a couple nights. I think we were paying for the full refrigerator, kitchen, living area, etc. and just needed bed and bath. The gym was not in full working order and the jacuzzi had been filled with cement/closed. A/C blew directly on you while sleeping - annoying.Breakfast was decent - not great. Parking was good. Staff was friendly and helpful.Hotel was clean and fairly modern.Traffic was an issue on Eldridge Pkwy.I would choose the Omni right off the highway if I was not on an expended stay.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r491202399-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -303,9 +423,6 @@
     <t xml:space="preserve">All I need morning vegetarian breakfast after 21 hours of airplane journey and jet lag that makes u hungry in the morning every morning. The rooms are good and hotel is pretty clean. Friendly front desk. Location is just the right place for many offices. </t>
   </si>
   <si>
-    <t>June 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r485553737-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -342,24 +459,63 @@
     <t>This is the second time we have stayed here for OTC. Great staff, clean rooms, nice happy hour. The breakfast needs a lot of help. I know it is free but please do a better job. It is close to a lot or restaurant.Thanks</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r477381897-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>477381897</t>
+  </si>
+  <si>
+    <t>04/20/2017</t>
+  </si>
+  <si>
+    <t>Solid Hotel</t>
+  </si>
+  <si>
+    <t>If you've got business in the Houston energy corridor the Residence Inn is a solid hotel option. Nice and clean. Small gym. Good breakfast. The price is a bit higher than what you can find on Katy Freeway but for me it's worth it because it cuts down on the surface street traffic driving.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r470193626-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>470193626</t>
+  </si>
+  <si>
+    <t>03/25/2017</t>
+  </si>
+  <si>
+    <t>Platinum Rewards Member Hung Up On</t>
+  </si>
+  <si>
+    <t>I needed to change my room to a 2br 2bth BUT even after I'd reserved the room online &amp; called; placed on hold for 20 minutes AND HUNG UP ON!!!! I came to the hotel AND TOLD THE AGENT THAT HE'D JUST HUNG UP ON ME!!!! He said, I was busy and we're sold off out. So I challenged h and asked why was I able to reserve the room if they were sold out &amp; he said he didn't know; it was a computer error. SO I HAD TO SETTLE for the 1br studio because HE was too LAZY to change me room while LYING to my face!!!!HE NEEDS TO BE FIRED!!!! I'm TOTALLY motivated to stay &amp; spend with Hilton if this is the type of treatment I am going to receive as a (again I say) PLATINUM MARRIOTT REWARDS MEMBER!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Leola J, General Manager at Residence Inn Houston West/Energy Corridor, responded to this reviewResponded March 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2017</t>
+  </si>
+  <si>
+    <t>I needed to change my room to a 2br 2bth BUT even after I'd reserved the room online &amp; called; placed on hold for 20 minutes AND HUNG UP ON!!!! I came to the hotel AND TOLD THE AGENT THAT HE'D JUST HUNG UP ON ME!!!! He said, I was busy and we're sold off out. So I challenged h and asked why was I able to reserve the room if they were sold out &amp; he said he didn't know; it was a computer error. SO I HAD TO SETTLE for the 1br studio because HE was too LAZY to change me room while LYING to my face!!!!HE NEEDS TO BE FIRED!!!! I'm TOTALLY motivated to stay &amp; spend with Hilton if this is the type of treatment I am going to receive as a (again I say) PLATINUM MARRIOTT REWARDS MEMBER!!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r470055914-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
     <t>470055914</t>
   </si>
   <si>
-    <t>03/25/2017</t>
-  </si>
-  <si>
     <t>Best Practical Hotel for business and pleasure</t>
   </si>
   <si>
     <t>Right from location, free shuttles,friendly staff and breakfast everything is just fine. We ordered a package to the hotel address and got intimated by the hotel when it arrived. They do lot of fun stuff most evenings with free barbecue and wine.</t>
   </si>
   <si>
-    <t>March 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r462589007-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -405,24 +561,51 @@
     <t>Stayed here 3 nights: Pros - super friendly and accommodating staff (5 stars), shower had great water flow; room was clean, gym was good. Cons- furniture and design are a bit outdated; breakfast was not appetizing at all - meat looked like it came frozen from a huge costco bag and was microwaved, fruit was too finely cut, breads were from supermarkets generic type, utensils were on a counter and not on special plates for food safety, I ended up eating chobani yogurts only as nothing looked good. Please charge $20 per night more and get better breakfast. Or don't offer it at all or downsize to some Einstein bagels and Chobani yogurts; business computer was not letting print a boarding pass so the front desk lady did it from her computer. Please upgrade that machine. It is antiquated. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r419509671-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>419509671</t>
+  </si>
+  <si>
+    <t>09/17/2016</t>
+  </si>
+  <si>
+    <t>We loved this place!</t>
+  </si>
+  <si>
+    <t>We are a traveling band of entertainers so we stay in a lot of hotels but the staff here were extremely courteous and professional.  The room was very clean and bed was very comfortable.  The wifi was super fast and there was plenty of free parking.  I'd highly recommend this property!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r410354642-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>410354642</t>
+  </si>
+  <si>
+    <t>08/24/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel with great staff</t>
+  </si>
+  <si>
+    <t>Stayed here with our family in a 2 BR suite. Very spacious and everything you could need in the room. The staff is super friendly and always resdy to make your stay as pleasant as possible.  Breakfast is basic but good with everything on offer from eggs to Greek yoghurt.A very nice hotel to stay and would very much recommend.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r410332127-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
     <t>410332127</t>
   </si>
   <si>
-    <t>08/24/2016</t>
-  </si>
-  <si>
     <t>Always a Good Stay.</t>
   </si>
   <si>
     <t>I have been coming here often on business and it's starting to feel like a home away from home. Rooms are setup nice with plenty of room. The staff is great and the front desk remembers me by name on my visits. Good breakfast and even some free drinks in the evening.</t>
   </si>
   <si>
-    <t>August 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r408996239-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -471,6 +654,42 @@
     <t>Stayed at this location many times &amp; although the front desk staff is very friendly, it is NOT set up for business travelers. No business center, impossible to make copies or print anything and on my latest stay, they couldn't provide room keys to guests so any time I needed into my room I had to go to the front desk and get escorted to my room so they could open my door. finally at 9pm they got me a room key.  Breakfast is also weak with limited offering and space. Time for an upgrade.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r392723786-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>392723786</t>
+  </si>
+  <si>
+    <t>07/14/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel, cool mix n mingle</t>
+  </si>
+  <si>
+    <t>I'm partial to Marriott but most the time I choose Courtyard or just Marriott plain. Have stayed at Residence Inn before and this one is nice very nice downstairs area pool is a little small But the rooms are very generous in size. Staff is great in the morning breakfast is good hot with eggs and bacon and all the fixings and free. Mix n mingle in the evenings. Awesome part of town to be in very nice and upscale and lots of bars and restaurants nearby that are quality top-notch places to dine</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r387646462-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>387646462</t>
+  </si>
+  <si>
+    <t>06/29/2016</t>
+  </si>
+  <si>
+    <t>Awesome staff and service!</t>
+  </si>
+  <si>
+    <t>As a frequent traveler I make this my preferred place to stay in Houston. The location provides easy access to IH-10 and the building style/decor offers a modern feel. But what makes this hotel stand out is the staff. Dakoda and Michelle always greet me by name, treat me like a friend, and go above and beyond to accommodate me during my stays. I appreciate that i will always be welcomed here, and know i can consider this a home away from home.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r385246653-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -486,9 +705,6 @@
     <t>We traveled to Houston for family business.  The staff at this hotel were amazingly accommodating.  All were friendly and helpful, greeting all of us by name.  All went the extra mile to make our stay as comfortable as possible.  Rooms were comfortable and clean.  The breakfast buffet had enough options to appeal to all.  The early evening wine and snacks were filling enough for a light dinner meal.  We would definitely stay at this particular hotel again if in the area.</t>
   </si>
   <si>
-    <t>June 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r383254233-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -522,6 +738,48 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r374838236-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>374838236</t>
+  </si>
+  <si>
+    <t>05/20/2016</t>
+  </si>
+  <si>
+    <t>Mixed Bag</t>
+  </si>
+  <si>
+    <t>First impression wasn't good.  Door was locked BEFORE 10 PM, I didn't see intercom and desk clerk not only seemed oblivious but then wanted to make a big deal out of the intercom location, opposite the sign and card access slot.  All other staff members were highly customer service oriented, with a single bad apple to make a first impression.Residence Inns bill themselves as extended stay facilities.  I specifically stayed here so I could cook healthy meals for a week.  Various info talks about kitchens, but I found a 2 burner cooktop, microwave, and 2 hard to clean pans.  No place to bake or broil in room.  Gas grill outside was broken, and front desk knew that.  Breakfast at the hotel has lots of options, but pitiful "kitchen" sent me grocery store surfing for lunch and restaurants for dinner, negating the primary reason for selecting this location.Room clean, quiet and functional.  Exercise room has lots of motorized aerobic equipment but for strength just a little rack of weights and no bench or universal machine.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>First impression wasn't good.  Door was locked BEFORE 10 PM, I didn't see intercom and desk clerk not only seemed oblivious but then wanted to make a big deal out of the intercom location, opposite the sign and card access slot.  All other staff members were highly customer service oriented, with a single bad apple to make a first impression.Residence Inns bill themselves as extended stay facilities.  I specifically stayed here so I could cook healthy meals for a week.  Various info talks about kitchens, but I found a 2 burner cooktop, microwave, and 2 hard to clean pans.  No place to bake or broil in room.  Gas grill outside was broken, and front desk knew that.  Breakfast at the hotel has lots of options, but pitiful "kitchen" sent me grocery store surfing for lunch and restaurants for dinner, negating the primary reason for selecting this location.Room clean, quiet and functional.  Exercise room has lots of motorized aerobic equipment but for strength just a little rack of weights and no bench or universal machine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r358012387-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>358012387</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>Excellent Hotel for Business!</t>
+  </si>
+  <si>
+    <t>I couldn't even wait until tomorrow when I check out to write this review. This is my first hotel review in a few years. I have to say this Residence Inn is exceptional. The staff are amazing...front desk manager knew me by name after checking me in the first evening. They have a simply AWESOME happy hour Monday-Wednesday with free apps and beer/wine/soda. The manager I always see at happy hour is very friendly and doesn't rush you at all. She even offered me a glass of wine to take up to my room when she saw me leaving my table! Tuesday evening they serve heavy apps that you can definitely get full on and don't even need to order food for dinner. I'm huge on breakfast and the breakfast they serve is really good! More than substantial, and not the subpar fake eggs and frozen sausage warmed in a microwave most hotels with free "hot breakfast" offer! I am currently commuting to Houston about twice a month for 4 days at a time, and I have tried a couple of other hotels (a Courtyard and an Omni). This will be my new hotel of choice for the next few months I have to travel to Houston! Location is great with plenty of restaurants in safe walking distance. I'm not usually this impressed with my hotel stay. I highly recommend this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>I couldn't even wait until tomorrow when I check out to write this review. This is my first hotel review in a few years. I have to say this Residence Inn is exceptional. The staff are amazing...front desk manager knew me by name after checking me in the first evening. They have a simply AWESOME happy hour Monday-Wednesday with free apps and beer/wine/soda. The manager I always see at happy hour is very friendly and doesn't rush you at all. She even offered me a glass of wine to take up to my room when she saw me leaving my table! Tuesday evening they serve heavy apps that you can definitely get full on and don't even need to order food for dinner. I'm huge on breakfast and the breakfast they serve is really good! More than substantial, and not the subpar fake eggs and frozen sausage warmed in a microwave most hotels with free "hot breakfast" offer! I am currently commuting to Houston about twice a month for 4 days at a time, and I have tried a couple of other hotels (a Courtyard and an Omni). This will be my new hotel of choice for the next few months I have to travel to Houston! Location is great with plenty of restaurants in safe walking distance. I'm not usually this impressed with my hotel stay. I highly recommend this hotel!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r355665858-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -537,9 +795,6 @@
     <t>Hotel isn't bad at all and the breakfast was good. Would definitely stay at this hotel again.  It's pet friendly and seemed to be very clean.  The kids (volleyball team) seemed to have really enjoyed it.MoreShow less</t>
   </si>
   <si>
-    <t>March 2016</t>
-  </si>
-  <si>
     <t>Leola J, General Manager at Residence Inn Houston West/Energy Corridor, responded to this reviewResponded March 17, 2016</t>
   </si>
   <si>
@@ -582,6 +837,39 @@
     <t>First time staying at this hotel because it just popped up as preferred on our travel and I hope it stays. Friendly front desk who know your name whenever you pass the lobby with a friendly greeting. Good breakfast and happy hour at 6pm. Room was clean, big, had a full kitchen. This hotel did everything you would expect from a Marriott. I hope it stays that way and keeps the friendly front desk; makes a world of difference when traveling for work away from home.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r339787624-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>339787624</t>
+  </si>
+  <si>
+    <t>01/13/2016</t>
+  </si>
+  <si>
+    <t>Good friendly hotel in the Energy Corridor</t>
+  </si>
+  <si>
+    <t>Stayed again at this hotel and always have a friendly greeting by the hotel front desk. very courteous hotel staff. Would be perfect for people looking for quiet place to work form or stay over if you are working in the area.  Overall very good hotel if you are looking for a place to stay in the area. decent breakfast and evening meal comes with the room.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r318959790-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>318959790</t>
+  </si>
+  <si>
+    <t>10/15/2015</t>
+  </si>
+  <si>
+    <t>Here often</t>
+  </si>
+  <si>
+    <t>I'm currently traveling to this area every other week and always stay at this Residence. The service is excellent, with Michelle at the front desk who always greets me by name with a smile. The gym is fine, as are the rooms.This is my home away from home and it pretty much feels that way.Recommended for sure.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r314655713-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -636,6 +924,39 @@
     <t>We have stayed here several times while visiting my in-laws who live in Parkway Place nearby and have never been disappointed. Excellent price, clean and comfortable room, and excellent breakfast with many choices (included in the price, which is very affordable). Lots of area restaurants close by. Really just cannot be beat. We often have found ourselves checking in quite late after arriving from the airport and would be placed in a ground-floor room; this time, we asked if we could be higher and were given a room on the top floor. Nice view and very quiet. Perfect! We liked, too, that there are different breakfast choices each day.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r289476869-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>289476869</t>
+  </si>
+  <si>
+    <t>07/16/2015</t>
+  </si>
+  <si>
+    <t>Excellent Location and Well Appointed</t>
+  </si>
+  <si>
+    <t>This place is amazing! Great customer service to go along with a great location.  We typically do not stay in a hotel like this, but got a great deal. The lobby is very large and open with a great decor. The pool area is nicely appointed with a cabana like grill area and the breakfast area had a number of options to choose from.  The room is like an apartment with two tvs (living room &amp; bedroom) and a full kitchen.  The beds are very comfortable, even the pull out sofabed.  The shops and amenities around this location make it convenient to find anything you need.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r286062879-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>286062879</t>
+  </si>
+  <si>
+    <t>07/06/2015</t>
+  </si>
+  <si>
+    <t>Typical great stat at Residence Inn</t>
+  </si>
+  <si>
+    <t>Stayed here for just 1 night while driving through Houston.  We are Marriott Elite, so have stayed at many Residence Inn all over the U.S.  This was the lowest priced we have ever paid for a 2 bedroom... And it was a great value.  Service was great and friendly, furniture was comfortable... Just a great overall stay, as usual.  Would definitely stay here again.  We did oversleep so missed the breakfast... But the hotel in general is very nice.  Looks older from the outside, but lobby and rooms are nicely updated.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r277575859-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -669,9 +990,6 @@
     <t>Other reviewers have covered it well. This is a newly updated and modern Residence Inn, walking distance to restaurants and stores. I was in town for a wedding and shared a two bedroom suite with four other friends. The room was very nice and clean. I was worried we might feel cramped but we weren't. The pool and pool area were nice. The hot tub never really got hot (just lukewarm, weird.) The breakfast was great except that they kept running out of things and it would take a while before they were replaced. I stayed over Memorial Day weekend; it's possible that they were just a bit understaffed for the crowd. Wifi worked great. Overall a very good stay.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>Other reviewers have covered it well. This is a newly updated and modern Residence Inn, walking distance to restaurants and stores. I was in town for a wedding and shared a two bedroom suite with four other friends. The room was very nice and clean. I was worried we might feel cramped but we weren't. The pool and pool area were nice. The hot tub never really got hot (just lukewarm, weird.) The breakfast was great except that they kept running out of things and it would take a while before they were replaced. I stayed over Memorial Day weekend; it's possible that they were just a bit understaffed for the crowd. Wifi worked great. Overall a very good stay.More</t>
   </si>
   <si>
@@ -690,6 +1008,49 @@
     <t>Wednesday is food truck day where they bring a local gourmet food truck outside and provide free beer and wine to go with it. Today was Mr Sizzles and they truly do have mouthwatering burgers! The hotel is really clean and well taken care of and centrally located to plenty of shops and eateries. Well worth the price.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r274860486-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>274860486</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>quiet rooms, friendly service here</t>
+  </si>
+  <si>
+    <t>This was my First time at this property and found it to have a friendly staff and quiet rooms,esp for a Residence Inn.I would recommend this hotel.no issues or concerns to share.they do have asmall pool that doesnyt offer much privacy for guests since a free BBQ was being served pool-side.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r272981425-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>272981425</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>Great location, Nice Property but has issues</t>
+  </si>
+  <si>
+    <t>I am a frequent Marriott customer and typically a fan of Residence Inn's. I like that I know what to expect and the quality of the rooms, mattress, etc are typically great. I recently selected this hotel as I was doing business less than 1 mile away. It's the perfect location if you're doing business in the energy corridor and is convenient to most things on the West side of town. As for my experience, I will break into 2 descriptions - the hotel and the service. 
+As for the physical hotel it's updated and is generally a nice place to stay. I felt as though things were clean, the mattress was great, shower and water pressure good, etc. I enjoyed all the activities they offered on-site including a grill out and happy hour. There were a handful of employees that went out of their way to serve and it was noticed. That was a really nice touch.  About the only thing that wasn't up to Marriott typical standards is that the hallway carpet is looking a little beat up and appears to be ignored. 
+I had several poor encounters as it relates to the service side of things starting with the check-in process where my credit card info was stolen with attempted charges of something close to $9k. On top of that, I experienced slow response from the location GM. I'm guessing this is a franchise location. In addition...I am a frequent Marriott customer and typically a fan of Residence Inn's. I like that I know what to expect and the quality of the rooms, mattress, etc are typically great. I recently selected this hotel as I was doing business less than 1 mile away. It's the perfect location if you're doing business in the energy corridor and is convenient to most things on the West side of town. As for my experience, I will break into 2 descriptions - the hotel and the service. As for the physical hotel it's updated and is generally a nice place to stay. I felt as though things were clean, the mattress was great, shower and water pressure good, etc. I enjoyed all the activities they offered on-site including a grill out and happy hour. There were a handful of employees that went out of their way to serve and it was noticed. That was a really nice touch.  About the only thing that wasn't up to Marriott typical standards is that the hallway carpet is looking a little beat up and appears to be ignored. I had several poor encounters as it relates to the service side of things starting with the check-in process where my credit card info was stolen with attempted charges of something close to $9k. On top of that, I experienced slow response from the location GM. I'm guessing this is a franchise location. In addition to this, I attempted to use the shuttle 2 days in a row with scheduled time and they were 20-30 minutes late both days and had "forgotten" my appts. The rest of my issues were petty - had to ask for shampoo, mugs for coffee, etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>Leola J, General Manager at Residence Inn Houston West/Energy Corridor, responded to this reviewResponded May 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2015</t>
+  </si>
+  <si>
+    <t>I am a frequent Marriott customer and typically a fan of Residence Inn's. I like that I know what to expect and the quality of the rooms, mattress, etc are typically great. I recently selected this hotel as I was doing business less than 1 mile away. It's the perfect location if you're doing business in the energy corridor and is convenient to most things on the West side of town. As for my experience, I will break into 2 descriptions - the hotel and the service. 
+As for the physical hotel it's updated and is generally a nice place to stay. I felt as though things were clean, the mattress was great, shower and water pressure good, etc. I enjoyed all the activities they offered on-site including a grill out and happy hour. There were a handful of employees that went out of their way to serve and it was noticed. That was a really nice touch.  About the only thing that wasn't up to Marriott typical standards is that the hallway carpet is looking a little beat up and appears to be ignored. 
+I had several poor encounters as it relates to the service side of things starting with the check-in process where my credit card info was stolen with attempted charges of something close to $9k. On top of that, I experienced slow response from the location GM. I'm guessing this is a franchise location. In addition...I am a frequent Marriott customer and typically a fan of Residence Inn's. I like that I know what to expect and the quality of the rooms, mattress, etc are typically great. I recently selected this hotel as I was doing business less than 1 mile away. It's the perfect location if you're doing business in the energy corridor and is convenient to most things on the West side of town. As for my experience, I will break into 2 descriptions - the hotel and the service. As for the physical hotel it's updated and is generally a nice place to stay. I felt as though things were clean, the mattress was great, shower and water pressure good, etc. I enjoyed all the activities they offered on-site including a grill out and happy hour. There were a handful of employees that went out of their way to serve and it was noticed. That was a really nice touch.  About the only thing that wasn't up to Marriott typical standards is that the hallway carpet is looking a little beat up and appears to be ignored. I had several poor encounters as it relates to the service side of things starting with the check-in process where my credit card info was stolen with attempted charges of something close to $9k. On top of that, I experienced slow response from the location GM. I'm guessing this is a franchise location. In addition to this, I attempted to use the shuttle 2 days in a row with scheduled time and they were 20-30 minutes late both days and had "forgotten" my appts. The rest of my issues were petty - had to ask for shampoo, mugs for coffee, etc.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r242685997-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -759,6 +1120,39 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r211072609-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>211072609</t>
+  </si>
+  <si>
+    <t>06/19/2014</t>
+  </si>
+  <si>
+    <t>Business trip to Houston</t>
+  </si>
+  <si>
+    <t>I was on a business trip at Houston last September to December and stayed at Residence in.Location is good and there is a parking area around the hotel.Rooms are clean and nice. They are large enough for longer staying at the hotel without feeling of a total hotel life.Swimming pool is small but its nice to go swim at evening after working whole day.The breakfast was nice as well as the evening dinner. Thanks for hotel staff!</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r207557140-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>207557140</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Convenient Hotel for Business in West Houston</t>
+  </si>
+  <si>
+    <t>I stayed one night while meeting with a local company. The hotel rooms have a kitchenette and are suitable for extended stays. Fitness center is weak but they have an outdoor pool and good running routes in the area. Lots of restaurants in walking distance or short drive. Staff was pleasant and helpful. I would stay here again.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r201189244-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -813,6 +1207,39 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r194446947-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>194446947</t>
+  </si>
+  <si>
+    <t>02/17/2014</t>
+  </si>
+  <si>
+    <t>Divas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The staff at this location was superb, very helpful and friendly. Enjoyed the daily breakfast buffet. Thanks for your hospitality! I really wish that there was an airport shuttle to and from this location. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r190520001-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>190520001</t>
+  </si>
+  <si>
+    <t>01/11/2014</t>
+  </si>
+  <si>
+    <t>Well managed hotel</t>
+  </si>
+  <si>
+    <t>This hotel is one of the better “high rise” type Residence Inns we've stayed at. The check in staff (Michelle) was over the top courteous, even offering to put together a dinner since we had missed that evening manager’s special with our late check-in. She also followed up on check-in with a courtesy call to make sure everything was alright, which reflected good training and management. Attention to our preferences as Rewards members was also appreciated, since most hotels just go through the motions mechanically and don’t seem to bother reading the notes in their database. The breakfast here was also unusual, with a friendly staff, offering additions to the standard Marriott morning selections -- that’s always a surprise when one sees the same thing served in the same way, all across the country.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is one of the better “high rise” type Residence Inns we've stayed at. The check in staff (Michelle) was over the top courteous, even offering to put together a dinner since we had missed that evening manager’s special with our late check-in. She also followed up on check-in with a courtesy call to make sure everything was alright, which reflected good training and management. Attention to our preferences as Rewards members was also appreciated, since most hotels just go through the motions mechanically and don’t seem to bother reading the notes in their database. The breakfast here was also unusual, with a friendly staff, offering additions to the standard Marriott morning selections -- that’s always a surprise when one sees the same thing served in the same way, all across the country.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r182473666-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -873,6 +1300,60 @@
     <t>We visit Houston often to see family and my husband and I along with our 8 year old stay at this hotel every trip. I always say i'm going to try a different hotel but we come back to this one because of the quiet, neutral location and family friendly amenities. The breaksfast and service are always great, and our room is always clean. The only negatives I can report are (1) two mornings straight, i had to wait for coffee.  I waited both times in the event the server just hadn't gotten around to it but i had to report there was no coffee before it was refilled and (2) there is an awful smell in the hotel that is stemming from food being cooked by some of the guests.  We noticed this our last stay but it was more offensive this trip. At one point, someone in the hotel had opened the window at the elevators so we knew we weren't the only ones bothered by it.  Other than that, this hotel is convenient and works well for our needs having the fridge and microwave and two tvs,,,,More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r167563056-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>167563056</t>
+  </si>
+  <si>
+    <t>07/14/2013</t>
+  </si>
+  <si>
+    <t>Great Staff , Safe location to Walk, Close to shopping centers.</t>
+  </si>
+  <si>
+    <t>We stayed 3 nights July 4,5,&amp; 6th. Great kitchen area, well maintained rooms, responsive staff. Good breakfast variety. Close to great restaurants and shopping.One elevator was noisy (sounded like an electric drill when moving) so we used the other elevator to feel safe.Excellent for family, business, and fans of cordless drills. The front entrance did not have an automatic door opener, so you must hold the door open, then roll your luggage in---difficult for handicapped individuals. The front entrance also had two benches which was occupied by smokers---you have to walk through a maze of cancerous smoke to enter so you must move fast ! Hopefully the management will address these issues so that our next stay will be better.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>We stayed 3 nights July 4,5,&amp; 6th. Great kitchen area, well maintained rooms, responsive staff. Good breakfast variety. Close to great restaurants and shopping.One elevator was noisy (sounded like an electric drill when moving) so we used the other elevator to feel safe.Excellent for family, business, and fans of cordless drills. The front entrance did not have an automatic door opener, so you must hold the door open, then roll your luggage in---difficult for handicapped individuals. The front entrance also had two benches which was occupied by smokers---you have to walk through a maze of cancerous smoke to enter so you must move fast ! Hopefully the management will address these issues so that our next stay will be better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r165815850-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>165815850</t>
+  </si>
+  <si>
+    <t>06/30/2013</t>
+  </si>
+  <si>
+    <t>The smells were terrible, bed was horrible!!!</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel during our family vacation. This was the 4th or 5 hotels that we had stayed at during our week long stay in Texas and it was by far the worst!!! The hotel exterior is nice, BUT.....
+We had arrived at the hotel around 11:00pm and the front door was locked (for security reasons), when the front desk attendant saw me he did come to open the door (if you can say that :0/) which was about all he did....he pushed the door open, walked back to behind the desk and said " how will you be paying for the room?"  He never once said hello, welcome to our hotel or anything that would make someone feel welcomed.  Upon checking in I noticed a weird smell, but chalked it up to someone maybe bringing food in or something, but the smell never went away.  I think this might be related to the fact that the rooms have kitchens that guests are able to "cook" in, but geez....  
+The elevators smelled like vanilla and strawberry, but mixed with the other random smells, it was overwhelming to say the least.
+To add to the horrible hospitality and the horrible smells throughout the hotel, the bed was horrible as well!!!  Remind you that this was the 4th of 5 hotels that we had stayed at and it was the worst BY FAR!!!!!!  It was lumpy, thin and uncomfortable and...We stayed at this hotel during our family vacation. This was the 4th or 5 hotels that we had stayed at during our week long stay in Texas and it was by far the worst!!! The hotel exterior is nice, BUT.....We had arrived at the hotel around 11:00pm and the front door was locked (for security reasons), when the front desk attendant saw me he did come to open the door (if you can say that :0/) which was about all he did....he pushed the door open, walked back to behind the desk and said " how will you be paying for the room?"  He never once said hello, welcome to our hotel or anything that would make someone feel welcomed.  Upon checking in I noticed a weird smell, but chalked it up to someone maybe bringing food in or something, but the smell never went away.  I think this might be related to the fact that the rooms have kitchens that guests are able to "cook" in, but geez....  The elevators smelled like vanilla and strawberry, but mixed with the other random smells, it was overwhelming to say the least.To add to the horrible hospitality and the horrible smells throughout the hotel, the bed was horrible as well!!!  Remind you that this was the 4th of 5 hotels that we had stayed at and it was the worst BY FAR!!!!!!  It was lumpy, thin and uncomfortable and I don't think it was a queen as stated/requested.  I think sleeping on the floor might have been better!!!! :0/. Thank goodness we only stayed the one night (we were originally going to stay for two nights)!!!  I WOULD NOT recommend staying at this hotel and to head over to another across the street or down the way a little bit.  Was not impressed AT ALL!!!  One positive was the following morning when I checked out, the desk attendant was very nice!!  Wish she had been there the night before.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Michelle V, General Manager at Residence Inn Houston West/Energy Corridor, responded to this reviewResponded July 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2013</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel during our family vacation. This was the 4th or 5 hotels that we had stayed at during our week long stay in Texas and it was by far the worst!!! The hotel exterior is nice, BUT.....
+We had arrived at the hotel around 11:00pm and the front door was locked (for security reasons), when the front desk attendant saw me he did come to open the door (if you can say that :0/) which was about all he did....he pushed the door open, walked back to behind the desk and said " how will you be paying for the room?"  He never once said hello, welcome to our hotel or anything that would make someone feel welcomed.  Upon checking in I noticed a weird smell, but chalked it up to someone maybe bringing food in or something, but the smell never went away.  I think this might be related to the fact that the rooms have kitchens that guests are able to "cook" in, but geez....  
+The elevators smelled like vanilla and strawberry, but mixed with the other random smells, it was overwhelming to say the least.
+To add to the horrible hospitality and the horrible smells throughout the hotel, the bed was horrible as well!!!  Remind you that this was the 4th of 5 hotels that we had stayed at and it was the worst BY FAR!!!!!!  It was lumpy, thin and uncomfortable and...We stayed at this hotel during our family vacation. This was the 4th or 5 hotels that we had stayed at during our week long stay in Texas and it was by far the worst!!! The hotel exterior is nice, BUT.....We had arrived at the hotel around 11:00pm and the front door was locked (for security reasons), when the front desk attendant saw me he did come to open the door (if you can say that :0/) which was about all he did....he pushed the door open, walked back to behind the desk and said " how will you be paying for the room?"  He never once said hello, welcome to our hotel or anything that would make someone feel welcomed.  Upon checking in I noticed a weird smell, but chalked it up to someone maybe bringing food in or something, but the smell never went away.  I think this might be related to the fact that the rooms have kitchens that guests are able to "cook" in, but geez....  The elevators smelled like vanilla and strawberry, but mixed with the other random smells, it was overwhelming to say the least.To add to the horrible hospitality and the horrible smells throughout the hotel, the bed was horrible as well!!!  Remind you that this was the 4th of 5 hotels that we had stayed at and it was the worst BY FAR!!!!!!  It was lumpy, thin and uncomfortable and I don't think it was a queen as stated/requested.  I think sleeping on the floor might have been better!!!! :0/. Thank goodness we only stayed the one night (we were originally going to stay for two nights)!!!  I WOULD NOT recommend staying at this hotel and to head over to another across the street or down the way a little bit.  Was not impressed AT ALL!!!  One positive was the following morning when I checked out, the desk attendant was very nice!!  Wish she had been there the night before.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r163274599-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -888,9 +1369,6 @@
     <t>I stayed four nights and it was really good, sad for me that rate in weekdays is double than weekends. Facilities are good and clean, staff is nice and friendly, the pool was clean and fun. Breakfast in the morning is just ok, and some staff is kind of rude when is closing time. Rooms are plenty of space, even if you pick the one bedroom, it is separated from the living area by a door. Kitchen is very good, and they can do your groceries shopping for you. Is located in the Energy corridor, but the location is good to go to Galleria or Katy.</t>
   </si>
   <si>
-    <t>June 2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r153090031-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -933,6 +1411,51 @@
     <t>Stayed three nights in this lovely property , the lobby was decorated very nicely and looked appealing, did not like the smell of the deodorizer by the noisy elevator , the corridor was very clean , the room furnished superbly and very clean, the bed was very comfortable as always, the couch and working desk appealing. The room contained a large refrigerator, microwave , dishwasher, coffee maker stove, and all dishes &amp; utensils needed for cooking. The restaurant had plenty room to eat and move around , the buffet attendant was very caring on replenishment of the food .  with Apples and oranges were large size , nice bowl of red grapes added value , assorted cereals stationed properly to avoid congested traffic .This would be my favorite place to stay .More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r149096957-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>149096957</t>
+  </si>
+  <si>
+    <t>01/07/2013</t>
+  </si>
+  <si>
+    <t>Horrible customer service</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for my wedding in Houston and had a horrible experience. The room I stayed in flooded because the service staff left the dish washer unattended which damaged my shoes and my wedding gown. The operations manager offered to clean the shoes and wedding gown instead of paying for the damages which i agreed to because i was trying to be nice. Big mistake... my shoes were returned to me 2 months later still damaged and I'm still waiting for my wedding gown almost 5 months later... My camera was also stolen and the hotel refused to take responsibility for it. Just put a damper on my wedding weekend.... If you decide to stay here, pray such incident don't happen to you; claim for damages immediately otherwise they won't look you once you've checked outMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Michelle V, General Manager at Residence Inn Houston West/Energy Corridor, responded to this reviewResponded February 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2013</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for my wedding in Houston and had a horrible experience. The room I stayed in flooded because the service staff left the dish washer unattended which damaged my shoes and my wedding gown. The operations manager offered to clean the shoes and wedding gown instead of paying for the damages which i agreed to because i was trying to be nice. Big mistake... my shoes were returned to me 2 months later still damaged and I'm still waiting for my wedding gown almost 5 months later... My camera was also stolen and the hotel refused to take responsibility for it. Just put a damper on my wedding weekend.... If you decide to stay here, pray such incident don't happen to you; claim for damages immediately otherwise they won't look you once you've checked outMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r147806517-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147806517</t>
+  </si>
+  <si>
+    <t>12/20/2012</t>
+  </si>
+  <si>
+    <t>Good place for an extended stay</t>
+  </si>
+  <si>
+    <t>We live nearby, so normally wouldn't be staying in Houston hotels, but when we had to move out our house for 5 days to have some plumbing work done, this is where we stayed, and it was a great choice.  Our one bedroom suite had a separate bedroom (small, but big enough) with a door, so we didn't wake each other up when operating on separate schedules.  The kitchen includes a full sized refrigerator, microwave, dishwasher and stove burners, but no oven - fine for our purposes, especially the refrigerator.  The property is clean, fresh and well-maintained, with good lobby and covered patio areas.  Most of the guests are business travelers, there for a week or more, so those areas are well used by co-workers in the evenings.  Breakfast is included, and is an extensive hot and cold buffet, with egg dishes, fresh fruit and fruit salad, yogurt parfaits some days, etc.  Monday through Thursday evenings a supper is served:  no choice, but it was good and meant we didn't have to go out again.  One night was chicken wings and salad, another night lasagna, mixed vegetables and salad.  Free beer every night!   The hotel is about a quarter mile north of I-10, and directly across Barker Cypress from a new children's hospital.  We would definitely recommend this property to those staying in West Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>We live nearby, so normally wouldn't be staying in Houston hotels, but when we had to move out our house for 5 days to have some plumbing work done, this is where we stayed, and it was a great choice.  Our one bedroom suite had a separate bedroom (small, but big enough) with a door, so we didn't wake each other up when operating on separate schedules.  The kitchen includes a full sized refrigerator, microwave, dishwasher and stove burners, but no oven - fine for our purposes, especially the refrigerator.  The property is clean, fresh and well-maintained, with good lobby and covered patio areas.  Most of the guests are business travelers, there for a week or more, so those areas are well used by co-workers in the evenings.  Breakfast is included, and is an extensive hot and cold buffet, with egg dishes, fresh fruit and fruit salad, yogurt parfaits some days, etc.  Monday through Thursday evenings a supper is served:  no choice, but it was good and meant we didn't have to go out again.  One night was chicken wings and salad, another night lasagna, mixed vegetables and salad.  Free beer every night!   The hotel is about a quarter mile north of I-10, and directly across Barker Cypress from a new children's hospital.  We would definitely recommend this property to those staying in West Houston.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r145192444-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -987,6 +1510,55 @@
     <t>May 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r129702794-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>129702794</t>
+  </si>
+  <si>
+    <t>05/10/2012</t>
+  </si>
+  <si>
+    <t>Good Business Hotel</t>
+  </si>
+  <si>
+    <t>Good location, close to most oil company and other large businesses and also close to several decent restaurants.  The room layout is efficient and the sleep quality is good.  We had a two bedroom suite.  The living area is of adequate size, the bedrooms are rather small, with a queen bed in each room.  The sofa in the living room opens up into a bed and is reasonably comfortable.  The free breakfast is of average quality.  We for the most part prepared breakfast in our room.  The coffee is good.  Overall a good choice for extended business and weekend family stays.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michelle V, Manager at Residence Inn Houston West/Energy Corridor, responded to this reviewResponded May 11, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2012</t>
+  </si>
+  <si>
+    <t>Good location, close to most oil company and other large businesses and also close to several decent restaurants.  The room layout is efficient and the sleep quality is good.  We had a two bedroom suite.  The living area is of adequate size, the bedrooms are rather small, with a queen bed in each room.  The sofa in the living room opens up into a bed and is reasonably comfortable.  The free breakfast is of average quality.  We for the most part prepared breakfast in our room.  The coffee is good.  Overall a good choice for extended business and weekend family stays.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r120150804-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>120150804</t>
+  </si>
+  <si>
+    <t>11/04/2011</t>
+  </si>
+  <si>
+    <t>Great choice for the area</t>
+  </si>
+  <si>
+    <t>This hotel was recommended to me by the oil company I was doing consulting for as it was very close to their office.  The front desk staff that greeted me was friendly and efficient.  The room (a queen studio) was relatively spacious but not huge.  This property does not offer king beds in any of their rooms, which I found a bit odd for a business class hotel.  The A/C was a bit noisy cycling on and off but that could be mitigated by setting the fan to run continuously.
+The room is equipped with a full size fridge, two-burner cooktop and microwave but no oven.  This proved to be adequate for light meals and leftovers.  There was a single large-ish flat screen TV that you could swivel to watch in the sitting area or bed but you can't watch it from both areas at the same time.  Many of the 40 or so channels offered were in high-def and they have Showtime rather than the more common HBO.  There is both free wired and wireless  Internet.  I used the wired and found the speed to be outstanding, especially for a free system.
+The hotel has a complimentary breakfast with your typical free-breakfast offerings - scrambled eggs, Sysco sausage, potatoes and a waffle iron for hot items with the usual assortment of cereals and breads.  In the evenings, there is a light meal of varying quality along with beer and...This hotel was recommended to me by the oil company I was doing consulting for as it was very close to their office.  The front desk staff that greeted me was friendly and efficient.  The room (a queen studio) was relatively spacious but not huge.  This property does not offer king beds in any of their rooms, which I found a bit odd for a business class hotel.  The A/C was a bit noisy cycling on and off but that could be mitigated by setting the fan to run continuously.The room is equipped with a full size fridge, two-burner cooktop and microwave but no oven.  This proved to be adequate for light meals and leftovers.  There was a single large-ish flat screen TV that you could swivel to watch in the sitting area or bed but you can't watch it from both areas at the same time.  Many of the 40 or so channels offered were in high-def and they have Showtime rather than the more common HBO.  There is both free wired and wireless  Internet.  I used the wired and found the speed to be outstanding, especially for a free system.The hotel has a complimentary breakfast with your typical free-breakfast offerings - scrambled eggs, Sysco sausage, potatoes and a waffle iron for hot items with the usual assortment of cereals and breads.  In the evenings, there is a light meal of varying quality along with beer and red wine.  Fortunately, there are several restaurants within easy walking distance.  Marriott properties have been making a concerted effort recently to stamp out literacy by being chintzy with their newspapers.  I was pleasantly surprised to find a paper at my door every morning.  I did not see this at many doors so this is probably due to my Marriott Rewards status but this is still better than many of their other properties do.All in all, this is a great choice if you need to be in this area of Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>This hotel was recommended to me by the oil company I was doing consulting for as it was very close to their office.  The front desk staff that greeted me was friendly and efficient.  The room (a queen studio) was relatively spacious but not huge.  This property does not offer king beds in any of their rooms, which I found a bit odd for a business class hotel.  The A/C was a bit noisy cycling on and off but that could be mitigated by setting the fan to run continuously.
+The room is equipped with a full size fridge, two-burner cooktop and microwave but no oven.  This proved to be adequate for light meals and leftovers.  There was a single large-ish flat screen TV that you could swivel to watch in the sitting area or bed but you can't watch it from both areas at the same time.  Many of the 40 or so channels offered were in high-def and they have Showtime rather than the more common HBO.  There is both free wired and wireless  Internet.  I used the wired and found the speed to be outstanding, especially for a free system.
+The hotel has a complimentary breakfast with your typical free-breakfast offerings - scrambled eggs, Sysco sausage, potatoes and a waffle iron for hot items with the usual assortment of cereals and breads.  In the evenings, there is a light meal of varying quality along with beer and...This hotel was recommended to me by the oil company I was doing consulting for as it was very close to their office.  The front desk staff that greeted me was friendly and efficient.  The room (a queen studio) was relatively spacious but not huge.  This property does not offer king beds in any of their rooms, which I found a bit odd for a business class hotel.  The A/C was a bit noisy cycling on and off but that could be mitigated by setting the fan to run continuously.The room is equipped with a full size fridge, two-burner cooktop and microwave but no oven.  This proved to be adequate for light meals and leftovers.  There was a single large-ish flat screen TV that you could swivel to watch in the sitting area or bed but you can't watch it from both areas at the same time.  Many of the 40 or so channels offered were in high-def and they have Showtime rather than the more common HBO.  There is both free wired and wireless  Internet.  I used the wired and found the speed to be outstanding, especially for a free system.The hotel has a complimentary breakfast with your typical free-breakfast offerings - scrambled eggs, Sysco sausage, potatoes and a waffle iron for hot items with the usual assortment of cereals and breads.  In the evenings, there is a light meal of varying quality along with beer and red wine.  Fortunately, there are several restaurants within easy walking distance.  Marriott properties have been making a concerted effort recently to stamp out literacy by being chintzy with their newspapers.  I was pleasantly surprised to find a paper at my door every morning.  I did not see this at many doors so this is probably due to my Marriott Rewards status but this is still better than many of their other properties do.All in all, this is a great choice if you need to be in this area of Houston.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r119568331-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -1044,6 +1616,45 @@
     <t>April 2011</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r77267068-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>77267068</t>
+  </si>
+  <si>
+    <t>08/28/2010</t>
+  </si>
+  <si>
+    <t>Good business hotel</t>
+  </si>
+  <si>
+    <t>Nice lobby and breakfast area. The bed is comfortable, and the extra room to sit and watch television is great. The bathroom sink is in a area outside of the tub and toilet, which is always nice if there is more than 1 person in the room.  Only stayed a couple of nights, so didn't make a lot of use of the kitchen facilitates, but they seemed to be in good condition and stocked with enough plates and cutlery. The included in the rate breakfast was really good, lots of choices and it was kept well stock. The evening drink and snack was also really good. There was a lot more hot food than I expected and it tasted good. Internet worked well. Everything was clean and neat. No restaurant in the hotel, but located in an area with 5 or 6 very close by.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>Nice lobby and breakfast area. The bed is comfortable, and the extra room to sit and watch television is great. The bathroom sink is in a area outside of the tub and toilet, which is always nice if there is more than 1 person in the room.  Only stayed a couple of nights, so didn't make a lot of use of the kitchen facilitates, but they seemed to be in good condition and stocked with enough plates and cutlery. The included in the rate breakfast was really good, lots of choices and it was kept well stock. The evening drink and snack was also really good. There was a lot more hot food than I expected and it tasted good. Internet worked well. Everything was clean and neat. No restaurant in the hotel, but located in an area with 5 or 6 very close by.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r50706964-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>50706964</t>
+  </si>
+  <si>
+    <t>12/05/2009</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>Stayed in this hotel continuously for more than 8 months ! great hotel, has cooking arrangements, kitchen, microoven, washing machine in the rooms. bath is great, has tv internet, good staffs. Hotel has a gym and a great big swimming pool, spa facility. The hotel is right in the midst of the west energy corrideor. Good breakfast. All the facilities are all inclusive. Cheap withing 100 USD only per night. has a hotel shuttle for going around upto 5 miles !</t>
+  </si>
+  <si>
+    <t>February 2008</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r32750887-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -1096,6 +1707,45 @@
   </si>
   <si>
     <t>September 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r16811697-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>16811697</t>
+  </si>
+  <si>
+    <t>06/10/2008</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>I had one overnight stay at the hotel in May 2008. The rooms were nice, however checking in and getting settled was not as easy.First they sent me to a room where someone was actually staying. I backed quitely out of there as I noticed the shoes in front of the bed...Secondly they were supposed to bring a plug-adapter to my room, but this never showed up. I guess I'm the type of picky guest that would like a little notice that they couldn't find one instead of just not showing up.Staff was friendly and the breakfast basic but good.</t>
+  </si>
+  <si>
+    <t>May 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d585164-r6704174-Residence_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>6704174</t>
+  </si>
+  <si>
+    <t>01/26/2007</t>
+  </si>
+  <si>
+    <t>great place</t>
+  </si>
+  <si>
+    <t>As a frequent and impatient traveler, I have a few odd quirks that I look for in a hotel.  First, I hate paying for parking, second, is there a nice food option available within walking distance, and finally and perhaps most important, can I get in a decent run in the early AM.  With those challenges, this makes staying in Houston somewhat difficult esp.. the running part.  This hotel meets those criteria.  Great choices to eat across the streets (Red Onion) and there is a very nice residential neighborhood within a half mile so one can easy get a 5 miler in the early AM with lighted streets. Parking is great and (free)...this is a nearly renovated hotel.  Nice lobby and rooms are clean. Located off 1-10 it give you access to many points in Houston.  People were friendly--off course its Texas ya'll--and I had not problems.  This has become my permanent Houston place to stay. This is not luxury but very practical.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2006</t>
+  </si>
+  <si>
+    <t>As a frequent and impatient traveler, I have a few odd quirks that I look for in a hotel.  First, I hate paying for parking, second, is there a nice food option available within walking distance, and finally and perhaps most important, can I get in a decent run in the early AM.  With those challenges, this makes staying in Houston somewhat difficult esp.. the running part.  This hotel meets those criteria.  Great choices to eat across the streets (Red Onion) and there is a very nice residential neighborhood within a half mile so one can easy get a 5 miler in the early AM with lighted streets. Parking is great and (free)...this is a nearly renovated hotel.  Nice lobby and rooms are clean. Located off 1-10 it give you access to many points in Houston.  People were friendly--off course its Texas ya'll--and I had not problems.  This has become my permanent Houston place to stay. This is not luxury but very practical.More</t>
   </si>
 </sst>
 </file>
@@ -1630,7 +2280,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1638,14 +2288,12 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="n">
-        <v>5</v>
-      </c>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>5</v>
-      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
         <v>5</v>
@@ -1653,14 +2301,10 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
         <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -1676,34 +2320,34 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>60</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>61</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1717,7 +2361,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -1733,41 +2377,43 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>65</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>66</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>67</v>
       </c>
-      <c r="L4" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>69</v>
-      </c>
       <c r="O4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
         <v>5</v>
@@ -1775,8 +2421,12 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X4" t="s">
+        <v>69</v>
+      </c>
       <c r="Y4" t="s">
         <v>70</v>
       </c>
@@ -1821,25 +2471,21 @@
         <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>77</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -1855,42 +2501,40 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>79</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>80</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>81</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>82</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>83</v>
       </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>84</v>
-      </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
         <v>5</v>
       </c>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
@@ -1902,7 +2546,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
@@ -1942,24 +2586,28 @@
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
@@ -1975,7 +2623,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1984,39 +2632,45 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
-      </c>
-      <c r="P8" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
       <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
@@ -2053,7 +2707,7 @@
         <v>100</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
         <v>101</v>
@@ -2061,12 +2715,16 @@
       <c r="O9" t="s">
         <v>53</v>
       </c>
-      <c r="P9" t="s"/>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
@@ -2110,20 +2768,26 @@
         <v>107</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
@@ -2146,54 +2810,48 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
         <v>108</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
-        <v>109</v>
-      </c>
-      <c r="J11" t="s">
-        <v>110</v>
-      </c>
-      <c r="K11" t="s">
-        <v>111</v>
-      </c>
-      <c r="L11" t="s">
-        <v>112</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>113</v>
-      </c>
       <c r="O11" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
@@ -2230,13 +2888,13 @@
         <v>118</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
         <v>119</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2250,7 +2908,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13">
@@ -2266,7 +2924,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2275,25 +2933,25 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2305,13 +2963,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="X13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14">
@@ -2327,7 +2985,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2336,25 +2994,25 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2368,7 +3026,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
@@ -2405,10 +3063,14 @@
         <v>139</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
-      </c>
-      <c r="N15" t="s"/>
-      <c r="O15" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O15" t="s">
+        <v>61</v>
+      </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
@@ -2418,14 +3080,10 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>140</v>
-      </c>
-      <c r="X15" t="s">
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
         <v>141</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="16">
@@ -2441,56 +3099,48 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
         <v>143</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>144</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>145</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>146</v>
       </c>
-      <c r="L16" t="s">
-        <v>147</v>
-      </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>3</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>148</v>
-      </c>
-      <c r="X16" t="s">
-        <v>149</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17">
@@ -2506,54 +3156,48 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>148</v>
+      </c>
+      <c r="J17" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" t="s">
+        <v>150</v>
+      </c>
+      <c r="L17" t="s">
         <v>151</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
         <v>152</v>
       </c>
-      <c r="J17" t="s">
-        <v>153</v>
-      </c>
-      <c r="K17" t="s">
-        <v>154</v>
-      </c>
-      <c r="L17" t="s">
-        <v>155</v>
-      </c>
-      <c r="M17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s">
-        <v>156</v>
-      </c>
       <c r="O17" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18">
@@ -2569,52 +3213,50 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" t="s">
+        <v>156</v>
+      </c>
+      <c r="L18" t="s">
         <v>157</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
         <v>158</v>
-      </c>
-      <c r="J18" t="s">
-        <v>159</v>
-      </c>
-      <c r="K18" t="s">
-        <v>160</v>
-      </c>
-      <c r="L18" t="s">
-        <v>161</v>
-      </c>
-      <c r="M18" t="n">
-        <v>4</v>
-      </c>
-      <c r="N18" t="s">
-        <v>156</v>
       </c>
       <c r="O18" t="s">
         <v>53</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="n">
-        <v>4</v>
-      </c>
-      <c r="R18" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>4</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>159</v>
+      </c>
+      <c r="X18" t="s">
+        <v>160</v>
+      </c>
       <c r="Y18" t="s">
         <v>161</v>
       </c>
@@ -2644,28 +3286,30 @@
         <v>163</v>
       </c>
       <c r="J19" t="s">
+        <v>155</v>
+      </c>
+      <c r="K19" t="s">
         <v>164</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>165</v>
       </c>
-      <c r="L19" t="s">
-        <v>166</v>
-      </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="O19" t="s">
-        <v>77</v>
-      </c>
-      <c r="P19" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
@@ -2677,7 +3321,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20">
@@ -2693,56 +3337,48 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>167</v>
+      </c>
+      <c r="J20" t="s">
         <v>168</v>
       </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="K20" t="s">
         <v>169</v>
       </c>
-      <c r="J20" t="s">
+      <c r="L20" t="s">
         <v>170</v>
       </c>
-      <c r="K20" t="s">
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
         <v>171</v>
       </c>
-      <c r="L20" t="s">
-        <v>172</v>
-      </c>
-      <c r="M20" t="n">
-        <v>3</v>
-      </c>
-      <c r="N20" t="s">
-        <v>173</v>
-      </c>
       <c r="O20" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
-      <c r="S20" t="n">
-        <v>3</v>
-      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>3</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>174</v>
-      </c>
-      <c r="X20" t="s">
-        <v>175</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21">
@@ -2758,54 +3394,52 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>173</v>
+      </c>
+      <c r="J21" t="s">
+        <v>174</v>
+      </c>
+      <c r="K21" t="s">
+        <v>175</v>
+      </c>
+      <c r="L21" t="s">
+        <v>176</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
         <v>177</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
-        <v>178</v>
-      </c>
-      <c r="J21" t="s">
-        <v>179</v>
-      </c>
-      <c r="K21" t="s">
-        <v>180</v>
-      </c>
-      <c r="L21" t="s">
-        <v>181</v>
-      </c>
-      <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
-        <v>182</v>
-      </c>
       <c r="O21" t="s">
-        <v>53</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>178</v>
+      </c>
+      <c r="X21" t="s">
+        <v>179</v>
+      </c>
       <c r="Y21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22">
@@ -2821,35 +3455,31 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>181</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>182</v>
+      </c>
+      <c r="J22" t="s">
         <v>183</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="K22" t="s">
         <v>184</v>
       </c>
-      <c r="J22" t="s">
+      <c r="L22" t="s">
         <v>185</v>
       </c>
-      <c r="K22" t="s">
-        <v>186</v>
-      </c>
-      <c r="L22" t="s">
-        <v>187</v>
-      </c>
       <c r="M22" t="n">
-        <v>4</v>
-      </c>
-      <c r="N22" t="s">
-        <v>182</v>
-      </c>
-      <c r="O22" t="s">
-        <v>53</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
@@ -2862,7 +3492,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23">
@@ -2878,31 +3508,31 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
+        <v>186</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J23" t="s">
         <v>188</v>
       </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="K23" t="s">
         <v>189</v>
       </c>
-      <c r="J23" t="s">
+      <c r="L23" t="s">
         <v>190</v>
       </c>
-      <c r="K23" t="s">
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
         <v>191</v>
-      </c>
-      <c r="L23" t="s">
-        <v>192</v>
-      </c>
-      <c r="M23" t="n">
-        <v>4</v>
-      </c>
-      <c r="N23" t="s">
-        <v>193</v>
       </c>
       <c r="O23" t="s">
         <v>53</v>
@@ -2919,7 +3549,7 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24">
@@ -2935,52 +3565,48 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>192</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>193</v>
+      </c>
+      <c r="J24" t="s">
+        <v>188</v>
+      </c>
+      <c r="K24" t="s">
+        <v>194</v>
+      </c>
+      <c r="L24" t="s">
         <v>195</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
-        <v>196</v>
-      </c>
-      <c r="J24" t="s">
-        <v>197</v>
-      </c>
-      <c r="K24" t="s">
-        <v>198</v>
-      </c>
-      <c r="L24" t="s">
-        <v>199</v>
-      </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P24" t="s"/>
-      <c r="Q24" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25">
@@ -2996,7 +3622,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3005,43 +3631,39 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="J25" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="K25" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L25" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
-      </c>
-      <c r="N25" t="s">
-        <v>193</v>
-      </c>
-      <c r="O25" t="s">
-        <v>77</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>201</v>
+      </c>
+      <c r="X25" t="s">
+        <v>202</v>
+      </c>
       <c r="Y25" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26">
@@ -3057,52 +3679,56 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
+        <v>204</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>205</v>
+      </c>
+      <c r="J26" t="s">
         <v>206</v>
       </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="K26" t="s">
         <v>207</v>
       </c>
-      <c r="J26" t="s">
+      <c r="L26" t="s">
         <v>208</v>
       </c>
-      <c r="K26" t="s">
-        <v>209</v>
-      </c>
-      <c r="L26" t="s">
-        <v>210</v>
-      </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
-      </c>
-      <c r="P26" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
       <c r="Q26" t="s"/>
-      <c r="R26" t="n">
-        <v>4</v>
-      </c>
+      <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>209</v>
+      </c>
+      <c r="X26" t="s">
+        <v>210</v>
+      </c>
       <c r="Y26" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27">
@@ -3139,33 +3765,27 @@
         <v>216</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="O27" t="s">
-        <v>217</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28">
@@ -3181,48 +3801,52 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
         <v>219</v>
       </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>220</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>221</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>222</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
         <v>223</v>
       </c>
-      <c r="M28" t="n">
-        <v>5</v>
-      </c>
-      <c r="N28" t="s">
-        <v>211</v>
-      </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
-      <c r="S28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
       <c r="T28" t="s"/>
-      <c r="U28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29">
@@ -3259,37 +3883,33 @@
         <v>228</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="O29" t="s">
         <v>53</v>
       </c>
-      <c r="P29" t="n">
-        <v>4</v>
-      </c>
+      <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
       <c r="R29" t="n">
-        <v>4</v>
-      </c>
-      <c r="S29" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>230</v>
-      </c>
-      <c r="X29" t="s">
-        <v>231</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30">
@@ -3305,44 +3925,46 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
+        <v>229</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>230</v>
+      </c>
+      <c r="J30" t="s">
+        <v>231</v>
+      </c>
+      <c r="K30" t="s">
+        <v>232</v>
+      </c>
+      <c r="L30" t="s">
         <v>233</v>
       </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" t="s">
-        <v>234</v>
-      </c>
-      <c r="J30" t="s">
-        <v>235</v>
-      </c>
-      <c r="K30" t="s">
-        <v>236</v>
-      </c>
-      <c r="L30" t="s">
-        <v>237</v>
-      </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="O30" t="s">
-        <v>239</v>
-      </c>
-      <c r="P30" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q30" t="s"/>
-      <c r="R30" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -3350,7 +3972,7 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31">
@@ -3366,7 +3988,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3375,34 +3997,32 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="J31" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="K31" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="L31" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="O31" t="s">
         <v>53</v>
       </c>
       <c r="P31" t="s"/>
-      <c r="Q31" t="n">
-        <v>5</v>
-      </c>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
-      <c r="S31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
         <v>5</v>
@@ -3413,7 +4033,7 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32">
@@ -3429,7 +4049,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3438,38 +4058,34 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="J32" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="K32" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="L32" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="O32" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="P32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q32" t="n">
         <v>4</v>
       </c>
-      <c r="R32" t="n">
-        <v>4</v>
-      </c>
-      <c r="S32" t="n">
-        <v>3</v>
-      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
         <v>4</v>
@@ -3480,7 +4096,7 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33">
@@ -3496,7 +4112,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3505,49 +4121,39 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="J33" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="K33" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="L33" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="M33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
-      </c>
-      <c r="P33" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>3</v>
-      </c>
-      <c r="R33" t="n">
-        <v>4</v>
-      </c>
-      <c r="S33" t="n">
-        <v>4</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34">
@@ -3563,7 +4169,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3572,49 +4178,47 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J34" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="K34" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="L34" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="O34" t="s">
         <v>53</v>
       </c>
-      <c r="P34" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R34" t="n">
-        <v>4</v>
-      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>259</v>
+      </c>
+      <c r="X34" t="s">
+        <v>260</v>
+      </c>
       <c r="Y34" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35">
@@ -3630,48 +4234,54 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
+        <v>262</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>263</v>
+      </c>
+      <c r="J35" t="s">
+        <v>264</v>
+      </c>
+      <c r="K35" t="s">
         <v>265</v>
       </c>
-      <c r="G35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="L35" t="s">
         <v>266</v>
       </c>
-      <c r="J35" t="s">
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
         <v>267</v>
       </c>
-      <c r="K35" t="s">
-        <v>268</v>
-      </c>
-      <c r="L35" t="s">
-        <v>269</v>
-      </c>
-      <c r="M35" t="n">
-        <v>4</v>
-      </c>
-      <c r="N35" t="s">
-        <v>270</v>
-      </c>
       <c r="O35" t="s">
-        <v>53</v>
-      </c>
-      <c r="P35" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
       <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
-      <c r="S35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
       <c r="T35" t="s"/>
-      <c r="U35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36">
@@ -3687,58 +4297,48 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
+        <v>268</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>269</v>
+      </c>
+      <c r="J36" t="s">
+        <v>270</v>
+      </c>
+      <c r="K36" t="s">
         <v>271</v>
       </c>
-      <c r="G36" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="L36" t="s">
         <v>272</v>
       </c>
-      <c r="J36" t="s">
-        <v>273</v>
-      </c>
-      <c r="K36" t="s">
-        <v>274</v>
-      </c>
-      <c r="L36" t="s">
-        <v>275</v>
-      </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
-      </c>
-      <c r="P36" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>4</v>
-      </c>
-      <c r="R36" t="n">
-        <v>4</v>
-      </c>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>5</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37">
@@ -3754,7 +4354,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3763,41 +4363,37 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="J37" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="K37" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L37" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="O37" t="s">
-        <v>77</v>
-      </c>
-      <c r="P37" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>3</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
       <c r="R37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3805,7 +4401,7 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38">
@@ -3821,7 +4417,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -3830,38 +4426,34 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="J38" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="K38" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="L38" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="O38" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="P38" t="n">
         <v>4</v>
       </c>
-      <c r="Q38" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q38" t="s"/>
       <c r="R38" t="n">
-        <v>4</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
         <v>5</v>
@@ -3872,7 +4464,7 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39">
@@ -3888,7 +4480,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -3897,49 +4489,39 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="J39" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="K39" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L39" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="M39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="O39" t="s">
-        <v>217</v>
-      </c>
-      <c r="P39" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>3</v>
-      </c>
-      <c r="R39" t="n">
-        <v>3</v>
-      </c>
-      <c r="S39" t="n">
-        <v>3</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>2</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40">
@@ -3955,7 +4537,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -3964,41 +4546,35 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="J40" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="K40" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="L40" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="O40" t="s">
-        <v>239</v>
-      </c>
-      <c r="P40" t="n">
-        <v>4</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P40" t="s"/>
       <c r="Q40" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -4006,7 +4582,7 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41">
@@ -4022,7 +4598,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4031,38 +4607,32 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="J41" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="K41" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="L41" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="O41" t="s">
-        <v>217</v>
+        <v>53</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
       </c>
-      <c r="Q41" t="n">
-        <v>4</v>
-      </c>
-      <c r="R41" t="n">
-        <v>5</v>
-      </c>
-      <c r="S41" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
         <v>5</v>
@@ -4073,7 +4643,7 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42">
@@ -4089,7 +4659,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4098,41 +4668,37 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="J42" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="K42" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="L42" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="O42" t="s">
-        <v>77</v>
-      </c>
-      <c r="P42" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
       <c r="Q42" t="n">
-        <v>3</v>
-      </c>
-      <c r="R42" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R42" t="s"/>
       <c r="S42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -4140,7 +4706,7 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43">
@@ -4156,7 +4722,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4165,49 +4731,39 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="J43" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="K43" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="L43" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="O43" t="s">
-        <v>77</v>
-      </c>
-      <c r="P43" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>4</v>
-      </c>
-      <c r="R43" t="n">
-        <v>5</v>
-      </c>
-      <c r="S43" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="n">
-        <v>5</v>
-      </c>
+      <c r="U43" t="s"/>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44">
@@ -4223,7 +4779,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4232,38 +4788,32 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="J44" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="K44" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="L44" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
-      </c>
-      <c r="P44" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>4</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
       <c r="R44" t="n">
-        <v>5</v>
-      </c>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
         <v>5</v>
@@ -4274,7 +4824,7 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45">
@@ -4290,7 +4840,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4299,41 +4849,37 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="J45" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="K45" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="L45" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="O45" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
       </c>
-      <c r="Q45" t="n">
-        <v>4</v>
-      </c>
-      <c r="R45" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
       <c r="S45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4341,7 +4887,7 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="46">
@@ -4357,7 +4903,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4366,49 +4912,39 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="J46" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="K46" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="L46" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="O46" t="s">
-        <v>239</v>
-      </c>
-      <c r="P46" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>5</v>
-      </c>
-      <c r="R46" t="n">
-        <v>5</v>
-      </c>
-      <c r="S46" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="n">
-        <v>5</v>
-      </c>
+      <c r="U46" t="s"/>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="47">
@@ -4424,7 +4960,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4433,41 +4969,37 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="J47" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="K47" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="L47" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
-      </c>
-      <c r="P47" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P47" t="s"/>
       <c r="Q47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R47" t="n">
-        <v>5</v>
-      </c>
-      <c r="S47" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
@@ -4475,7 +5007,7 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="48">
@@ -4491,7 +5023,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4500,49 +5032,47 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="J48" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="K48" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="L48" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="M48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
-      </c>
-      <c r="P48" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>4</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
       <c r="R48" t="n">
         <v>5</v>
       </c>
-      <c r="S48" t="n">
-        <v>5</v>
-      </c>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
+      <c r="W48" t="s">
+        <v>340</v>
+      </c>
+      <c r="X48" t="s">
+        <v>341</v>
+      </c>
       <c r="Y48" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="49">
@@ -4558,7 +5088,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -4567,49 +5097,2315 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="J49" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="K49" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="L49" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="O49" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="P49" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q49" t="s"/>
       <c r="R49" t="n">
-        <v>5</v>
-      </c>
-      <c r="S49" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
+      <c r="W49" t="s">
+        <v>349</v>
+      </c>
+      <c r="X49" t="s">
+        <v>350</v>
+      </c>
       <c r="Y49" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>352</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>353</v>
+      </c>
+      <c r="J50" t="s">
+        <v>354</v>
+      </c>
+      <c r="K50" t="s">
+        <v>355</v>
+      </c>
+      <c r="L50" t="s">
+        <v>356</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>357</v>
+      </c>
+      <c r="O50" t="s">
         <v>358</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>360</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>361</v>
+      </c>
+      <c r="J51" t="s">
+        <v>362</v>
+      </c>
+      <c r="K51" t="s">
+        <v>363</v>
+      </c>
+      <c r="L51" t="s">
+        <v>364</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>365</v>
+      </c>
+      <c r="O51" t="s">
+        <v>61</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>366</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>367</v>
+      </c>
+      <c r="J52" t="s">
+        <v>368</v>
+      </c>
+      <c r="K52" t="s">
+        <v>369</v>
+      </c>
+      <c r="L52" t="s">
+        <v>370</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>371</v>
+      </c>
+      <c r="O52" t="s">
+        <v>61</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>372</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>373</v>
+      </c>
+      <c r="J53" t="s">
+        <v>374</v>
+      </c>
+      <c r="K53" t="s">
+        <v>375</v>
+      </c>
+      <c r="L53" t="s">
+        <v>376</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>377</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>378</v>
+      </c>
+      <c r="J54" t="s">
+        <v>379</v>
+      </c>
+      <c r="K54" t="s">
+        <v>380</v>
+      </c>
+      <c r="L54" t="s">
+        <v>381</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>382</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>383</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>384</v>
+      </c>
+      <c r="J55" t="s">
+        <v>385</v>
+      </c>
+      <c r="K55" t="s">
+        <v>386</v>
+      </c>
+      <c r="L55" t="s">
+        <v>387</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>388</v>
+      </c>
+      <c r="O55" t="s">
+        <v>61</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>389</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>390</v>
+      </c>
+      <c r="J56" t="s">
+        <v>391</v>
+      </c>
+      <c r="K56" t="s">
+        <v>392</v>
+      </c>
+      <c r="L56" t="s">
+        <v>393</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>394</v>
+      </c>
+      <c r="O56" t="s">
+        <v>61</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>395</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>396</v>
+      </c>
+      <c r="J57" t="s">
+        <v>397</v>
+      </c>
+      <c r="K57" t="s">
+        <v>398</v>
+      </c>
+      <c r="L57" t="s">
+        <v>399</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>388</v>
+      </c>
+      <c r="O57" t="s">
+        <v>120</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>400</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>401</v>
+      </c>
+      <c r="J58" t="s">
+        <v>402</v>
+      </c>
+      <c r="K58" t="s">
+        <v>403</v>
+      </c>
+      <c r="L58" t="s">
+        <v>404</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>394</v>
+      </c>
+      <c r="O58" t="s">
+        <v>61</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>406</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>407</v>
+      </c>
+      <c r="J59" t="s">
+        <v>408</v>
+      </c>
+      <c r="K59" t="s">
+        <v>409</v>
+      </c>
+      <c r="L59" t="s">
+        <v>410</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>411</v>
+      </c>
+      <c r="O59" t="s">
+        <v>61</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>412</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>413</v>
+      </c>
+      <c r="J60" t="s">
+        <v>414</v>
+      </c>
+      <c r="K60" t="s">
+        <v>415</v>
+      </c>
+      <c r="L60" t="s">
+        <v>416</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>417</v>
+      </c>
+      <c r="O60" t="s">
+        <v>61</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>419</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>420</v>
+      </c>
+      <c r="J61" t="s">
+        <v>421</v>
+      </c>
+      <c r="K61" t="s">
+        <v>422</v>
+      </c>
+      <c r="L61" t="s">
+        <v>423</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>424</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>426</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>427</v>
+      </c>
+      <c r="J62" t="s">
+        <v>428</v>
+      </c>
+      <c r="K62" t="s">
+        <v>429</v>
+      </c>
+      <c r="L62" t="s">
+        <v>430</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>431</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>433</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>434</v>
+      </c>
+      <c r="J63" t="s">
+        <v>435</v>
+      </c>
+      <c r="K63" t="s">
+        <v>436</v>
+      </c>
+      <c r="L63" t="s">
+        <v>437</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" t="s">
+        <v>438</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>2</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>439</v>
+      </c>
+      <c r="X63" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>442</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>443</v>
+      </c>
+      <c r="J64" t="s">
+        <v>444</v>
+      </c>
+      <c r="K64" t="s">
+        <v>445</v>
+      </c>
+      <c r="L64" t="s">
+        <v>446</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>438</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>447</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>448</v>
+      </c>
+      <c r="J65" t="s">
+        <v>449</v>
+      </c>
+      <c r="K65" t="s">
+        <v>450</v>
+      </c>
+      <c r="L65" t="s">
+        <v>451</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>452</v>
+      </c>
+      <c r="O65" t="s">
+        <v>120</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>2</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>454</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>455</v>
+      </c>
+      <c r="J66" t="s">
+        <v>456</v>
+      </c>
+      <c r="K66" t="s">
+        <v>457</v>
+      </c>
+      <c r="L66" t="s">
+        <v>458</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>459</v>
+      </c>
+      <c r="O66" t="s">
+        <v>358</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>461</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>462</v>
+      </c>
+      <c r="J67" t="s">
+        <v>463</v>
+      </c>
+      <c r="K67" t="s">
+        <v>464</v>
+      </c>
+      <c r="L67" t="s">
+        <v>465</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>466</v>
+      </c>
+      <c r="O67" t="s">
+        <v>358</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>467</v>
+      </c>
+      <c r="X67" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>470</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>471</v>
+      </c>
+      <c r="J68" t="s">
+        <v>472</v>
+      </c>
+      <c r="K68" t="s">
+        <v>473</v>
+      </c>
+      <c r="L68" t="s">
+        <v>474</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>417</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>476</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>477</v>
+      </c>
+      <c r="J69" t="s">
+        <v>478</v>
+      </c>
+      <c r="K69" t="s">
+        <v>479</v>
+      </c>
+      <c r="L69" t="s">
+        <v>480</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>417</v>
+      </c>
+      <c r="O69" t="s">
+        <v>120</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>481</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>482</v>
+      </c>
+      <c r="J70" t="s">
+        <v>483</v>
+      </c>
+      <c r="K70" t="s">
+        <v>484</v>
+      </c>
+      <c r="L70" t="s">
+        <v>485</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>486</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>488</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>489</v>
+      </c>
+      <c r="J71" t="s">
+        <v>490</v>
+      </c>
+      <c r="K71" t="s">
+        <v>491</v>
+      </c>
+      <c r="L71" t="s">
+        <v>492</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>493</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>494</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>495</v>
+      </c>
+      <c r="J72" t="s">
+        <v>496</v>
+      </c>
+      <c r="K72" t="s">
+        <v>497</v>
+      </c>
+      <c r="L72" t="s">
+        <v>498</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>493</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>499</v>
+      </c>
+      <c r="X72" t="s">
+        <v>500</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>502</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>503</v>
+      </c>
+      <c r="J73" t="s">
+        <v>504</v>
+      </c>
+      <c r="K73" t="s">
+        <v>505</v>
+      </c>
+      <c r="L73" t="s">
+        <v>506</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>507</v>
+      </c>
+      <c r="O73" t="s">
+        <v>61</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>509</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>510</v>
+      </c>
+      <c r="J74" t="s">
+        <v>511</v>
+      </c>
+      <c r="K74" t="s">
+        <v>512</v>
+      </c>
+      <c r="L74" t="s">
+        <v>513</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>514</v>
+      </c>
+      <c r="O74" t="s">
+        <v>61</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>516</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>517</v>
+      </c>
+      <c r="J75" t="s">
+        <v>518</v>
+      </c>
+      <c r="K75" t="s">
+        <v>519</v>
+      </c>
+      <c r="L75" t="s">
+        <v>520</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>521</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>522</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>523</v>
+      </c>
+      <c r="J76" t="s">
+        <v>524</v>
+      </c>
+      <c r="K76" t="s">
+        <v>525</v>
+      </c>
+      <c r="L76" t="s">
+        <v>526</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>527</v>
+      </c>
+      <c r="O76" t="s">
+        <v>358</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>528</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>529</v>
+      </c>
+      <c r="J77" t="s">
+        <v>530</v>
+      </c>
+      <c r="K77" t="s">
+        <v>531</v>
+      </c>
+      <c r="L77" t="s">
+        <v>532</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>533</v>
+      </c>
+      <c r="O77" t="s">
+        <v>61</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>535</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>536</v>
+      </c>
+      <c r="J78" t="s">
+        <v>537</v>
+      </c>
+      <c r="K78" t="s">
+        <v>538</v>
+      </c>
+      <c r="L78" t="s">
+        <v>539</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>540</v>
+      </c>
+      <c r="O78" t="s">
+        <v>61</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>541</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>542</v>
+      </c>
+      <c r="J79" t="s">
+        <v>543</v>
+      </c>
+      <c r="K79" t="s">
+        <v>544</v>
+      </c>
+      <c r="L79" t="s">
+        <v>545</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>546</v>
+      </c>
+      <c r="O79" t="s">
+        <v>61</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>547</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>548</v>
+      </c>
+      <c r="J80" t="s">
+        <v>549</v>
+      </c>
+      <c r="K80" t="s">
+        <v>550</v>
+      </c>
+      <c r="L80" t="s">
+        <v>551</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>552</v>
+      </c>
+      <c r="O80" t="s">
+        <v>61</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>553</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>554</v>
+      </c>
+      <c r="J81" t="s">
+        <v>555</v>
+      </c>
+      <c r="K81" t="s">
+        <v>556</v>
+      </c>
+      <c r="L81" t="s">
+        <v>557</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>558</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>3</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>559</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>560</v>
+      </c>
+      <c r="J82" t="s">
+        <v>561</v>
+      </c>
+      <c r="K82" t="s">
+        <v>562</v>
+      </c>
+      <c r="L82" t="s">
+        <v>563</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2</v>
+      </c>
+      <c r="N82" t="s">
+        <v>564</v>
+      </c>
+      <c r="O82" t="s">
+        <v>61</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>2</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>53970</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>565</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>566</v>
+      </c>
+      <c r="J83" t="s">
+        <v>567</v>
+      </c>
+      <c r="K83" t="s">
+        <v>568</v>
+      </c>
+      <c r="L83" t="s">
+        <v>569</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>570</v>
+      </c>
+      <c r="O83" t="s">
+        <v>61</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>571</v>
       </c>
     </row>
   </sheetData>
